--- a/Excel/镇魂街/operAct.运营活动.xlsx
+++ b/Excel/镇魂街/operAct.运营活动.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="卡牌通灵" sheetId="26" r:id="rId2"/>
+    <sheet name="#卡牌投放思路" sheetId="29" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="188">
   <si>
     <t>sheet名</t>
   </si>
@@ -56,28 +57,8 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>唐流雨</t>
-  </si>
-  <si>
-    <t>典韦</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>典韦</t>
-  </si>
-  <si>
-    <t>许褚</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>许褚</t>
-  </si>
-  <si>
     <t>关羽</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关羽</t>
   </si>
   <si>
     <t>卡牌2参数_2</t>
@@ -229,18 +210,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>飞廉#噬日#食火蜥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞廉#噬日#食火蜥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞廉#于禁#食火蜥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>int:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -255,6 +224,591 @@
   <si>
     <t>int:e&lt;&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵容特色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌强度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡难度</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>付费区间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈风螳螂</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>于禁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞伯罗斯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李轩辕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>噬日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使缇娜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞廉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐晃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西方龙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张颌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项羽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>很容易</t>
+  </si>
+  <si>
+    <t>容易</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>品质</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>难</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR</t>
+  </si>
+  <si>
+    <t>很难</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合配项羽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>P强，拉次留</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次产出（除抽卡）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>非R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0~200</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计获得时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合配项羽
+刘羽禅200</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>200~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>500</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>00~1000</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000+或时间积累</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手引导</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始阵容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>高顺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶替换</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进阶阵容2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>石灵明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽到替许褚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终阵容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽到替高顺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡填概率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标SSR阵容</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手引导</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时，通关第3章</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第20次抽将</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第10次抽将</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首次产出（除抽卡）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>芦花古楼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石商店，贵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石商店，便宜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西方龙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项羽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李轩辕#噬日#天使缇娜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚#高顺#李轩辕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>石灵明#典韦#飞廉</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>夏侯惇#张飞#西方龙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>徐晃#烈风螳螂#飞廉</t>
+  </si>
+  <si>
+    <t>R10资</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR12资</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR13资</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR15资</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR16资</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR14资</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐流雨</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>李轩辕</t>
+  </si>
+  <si>
+    <t>高顺</t>
+  </si>
+  <si>
+    <t>许褚</t>
+  </si>
+  <si>
+    <t>石灵明</t>
+  </si>
+  <si>
+    <t>典韦</t>
+  </si>
+  <si>
+    <t>飞廉</t>
+  </si>
+  <si>
+    <t>烈风螳螂</t>
+  </si>
+  <si>
+    <t>噬日</t>
+  </si>
+  <si>
+    <t>塞伯罗斯</t>
+  </si>
+  <si>
+    <t>天使缇娜</t>
+  </si>
+  <si>
+    <t>徐晃</t>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>西方龙</t>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>项羽</t>
+  </si>
+  <si>
+    <t>张颌</t>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值Id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>权重</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值反比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡概率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通掉落</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期掉落1（前19）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第40、80次抽将</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>80次抽将</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第40、80次抽将</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>食火蜥</t>
   </si>
 </sst>
 </file>
@@ -389,7 +943,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -423,8 +977,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -454,11 +1045,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -472,16 +1060,67 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="13">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="5">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="13">
     <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Grid 2" xfId="13"/>
     <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="10"/>
@@ -506,6 +1145,101 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>42024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8877300" y="5019676"/>
+          <a:ext cx="7038975" cy="3804398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>19050</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>447675</xdr:colOff>
+          <xdr:row>50</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5131" name="Object 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5131"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -816,20 +1550,20 @@
     </row>
     <row r="2" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -838,14 +1572,14 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -886,332 +1620,1824 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="11.875" customWidth="1"/>
     <col min="4" max="4" width="25.875" customWidth="1"/>
-    <col min="5" max="16" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="27.125" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="27.625" customWidth="1"/>
+    <col min="9" max="9" width="26.25" customWidth="1"/>
+    <col min="10" max="10" width="30.25" customWidth="1"/>
+    <col min="11" max="11" width="28.375" customWidth="1"/>
+    <col min="12" max="12" width="27.875" customWidth="1"/>
+    <col min="13" max="13" width="26.125" customWidth="1"/>
+    <col min="14" max="14" width="27.25" customWidth="1"/>
+    <col min="15" max="16" width="12.625" customWidth="1"/>
     <col min="17" max="17" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="M2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="P2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
+        <v>40</v>
+      </c>
+      <c r="I4" s="3">
         <v>2</v>
       </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>10</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="J4" s="3">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
+        <v>40</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>50</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>50</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>50</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>50</v>
+      </c>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>10</v>
-      </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="B6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>50</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>50</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>10</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>10</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
+      <c r="N6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>10</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>10</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5">
-        <v>10</v>
-      </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>10</v>
-      </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>10</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>10</v>
-      </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="B7" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>50</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>40</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>3</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>50</v>
+      </c>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>60</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>60</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>60</v>
+      </c>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="54.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="30" style="5" customWidth="1"/>
+    <col min="11" max="11" width="23.75" style="5" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="8"/>
+    </row>
+    <row r="4" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
+      <c r="B8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
+      <c r="B9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="23"/>
+      <c r="B17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="24"/>
+      <c r="B18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="22"/>
+      <c r="B20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="22"/>
+      <c r="B21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="54" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+    </row>
+    <row r="55" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="12">
+        <v>1</v>
+      </c>
+      <c r="B56" s="12">
+        <v>5</v>
+      </c>
+      <c r="C56" s="12">
+        <v>15</v>
+      </c>
+      <c r="D56" s="12">
+        <v>50</v>
+      </c>
+      <c r="E56" s="12">
+        <v>100</v>
+      </c>
+      <c r="F56" s="12">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="G58" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="20"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="D59" s="5">
+        <f>SUM(D61:D80)</f>
+        <v>4051.3333333333326</v>
+      </c>
+      <c r="J59" s="5">
+        <f>SUM(J61:J74)</f>
+        <v>3946.6666666666661</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K60" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B61" s="12">
+        <v>1</v>
+      </c>
+      <c r="C61" s="12">
+        <f>INDEX($A$56:$F$56,B61)</f>
+        <v>1</v>
+      </c>
+      <c r="D61" s="12">
+        <f>1000/C61</f>
+        <v>1000</v>
+      </c>
+      <c r="E61" s="12">
+        <f>10000-SUM(E62:E80)</f>
+        <v>2466</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H61" s="12">
+        <v>1</v>
+      </c>
+      <c r="I61" s="12">
+        <f>INDEX($A$56:$F$56,H61)</f>
+        <v>1</v>
+      </c>
+      <c r="J61" s="12">
+        <f>1000/I61</f>
+        <v>1000</v>
+      </c>
+      <c r="K61" s="12">
+        <f>10000-SUM(K62:K74)</f>
+        <v>2531</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" s="12">
+        <v>1</v>
+      </c>
+      <c r="C62" s="12">
+        <f t="shared" ref="C62:C80" si="0">INDEX($A$56:$F$56,B62)</f>
+        <v>1</v>
+      </c>
+      <c r="D62" s="12">
+        <f t="shared" ref="D62:D80" si="1">1000/C62</f>
+        <v>1000</v>
+      </c>
+      <c r="E62" s="12">
+        <f t="shared" ref="E62:E80" si="2">ROUND(10000*D62/$D$59,0)</f>
+        <v>2468</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H62" s="12">
+        <v>1</v>
+      </c>
+      <c r="I62" s="12">
+        <f t="shared" ref="I62:I64" si="3">INDEX($A$56:$F$56,H62)</f>
+        <v>1</v>
+      </c>
+      <c r="J62" s="12">
+        <f t="shared" ref="J62:J64" si="4">1000/I62</f>
+        <v>1000</v>
+      </c>
+      <c r="K62" s="12">
+        <f>ROUND(10000*J62/J$59,0)</f>
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" s="12">
+        <v>2</v>
+      </c>
+      <c r="C63" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D63" s="12">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E63" s="12">
+        <f t="shared" si="2"/>
+        <v>494</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H63" s="12">
+        <v>2</v>
+      </c>
+      <c r="I63" s="12">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J63" s="12">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="K63" s="12">
+        <f t="shared" ref="K63:K74" si="5">ROUND(10000*J63/J$59,0)</f>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="12">
+        <v>3</v>
+      </c>
+      <c r="C64" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D64" s="12">
+        <f t="shared" si="1"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E64" s="12">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H64" s="12">
+        <v>3</v>
+      </c>
+      <c r="I64" s="12">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="J64" s="12">
+        <f t="shared" si="4"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K64" s="12">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="12">
+        <v>3</v>
+      </c>
+      <c r="C65" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D65" s="12">
+        <f t="shared" si="1"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E65" s="12">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="H65" s="12">
+        <v>3</v>
+      </c>
+      <c r="I65" s="12">
+        <f t="shared" ref="I65:I74" si="6">INDEX($A$56:$F$56,H65)</f>
+        <v>15</v>
+      </c>
+      <c r="J65" s="12">
+        <f t="shared" ref="J65:J74" si="7">1000/I65</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K65" s="12">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B66" s="12">
+        <v>3</v>
+      </c>
+      <c r="C66" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D66" s="12">
+        <f t="shared" si="1"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E66" s="12">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="H66" s="12">
+        <v>4</v>
+      </c>
+      <c r="I66" s="12">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="J66" s="12">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="K66" s="12">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="12">
+        <v>4</v>
+      </c>
+      <c r="C67" s="12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D67" s="12">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E67" s="12">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H67" s="12">
+        <v>3</v>
+      </c>
+      <c r="I67" s="12">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="J67" s="12">
+        <f t="shared" si="7"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K67" s="12">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="12">
+        <v>3</v>
+      </c>
+      <c r="C68" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D68" s="12">
+        <f t="shared" si="1"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E68" s="12">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="H68" s="12">
+        <v>2</v>
+      </c>
+      <c r="I68" s="12">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J68" s="12">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="K68" s="12">
+        <f t="shared" si="5"/>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B69" s="12">
+        <v>2</v>
+      </c>
+      <c r="C69" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D69" s="12">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E69" s="12">
+        <f t="shared" si="2"/>
+        <v>494</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H69" s="12">
+        <v>3</v>
+      </c>
+      <c r="I69" s="12">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="J69" s="12">
+        <f t="shared" si="7"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K69" s="12">
+        <f t="shared" si="5"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="B70" s="12">
+        <v>3</v>
+      </c>
+      <c r="C70" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D70" s="12">
+        <f t="shared" si="1"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E70" s="12">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="H70" s="12">
+        <v>1</v>
+      </c>
+      <c r="I70" s="12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J70" s="12">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+      <c r="K70" s="12">
+        <f t="shared" si="5"/>
+        <v>2534</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B71" s="12">
+        <v>1</v>
+      </c>
+      <c r="C71" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D71" s="12">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="E71" s="12">
+        <f t="shared" si="2"/>
+        <v>2468</v>
+      </c>
+      <c r="G71" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="H71" s="12">
+        <v>2</v>
+      </c>
+      <c r="I71" s="12">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="J71" s="12">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="K71" s="12">
+        <f t="shared" si="5"/>
+        <v>507</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" s="12">
+        <v>2</v>
+      </c>
+      <c r="C72" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D72" s="12">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E72" s="12">
+        <f t="shared" si="2"/>
+        <v>494</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H72" s="12">
+        <v>4</v>
+      </c>
+      <c r="I72" s="12">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="J72" s="12">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="K72" s="12">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B73" s="12">
+        <v>4</v>
+      </c>
+      <c r="C73" s="12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D73" s="12">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E73" s="12">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="H73" s="12">
+        <v>4</v>
+      </c>
+      <c r="I73" s="12">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="J73" s="12">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="K73" s="12">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" s="12">
+        <v>4</v>
+      </c>
+      <c r="C74" s="12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D74" s="12">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E74" s="12">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="H74" s="12">
+        <v>4</v>
+      </c>
+      <c r="I74" s="12">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="J74" s="12">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="K74" s="12">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B75" s="12">
+        <v>5</v>
+      </c>
+      <c r="C75" s="12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D75" s="12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E75" s="12">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="12">
+        <v>5</v>
+      </c>
+      <c r="C76" s="12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D76" s="12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E76" s="12">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B77" s="12">
+        <v>4</v>
+      </c>
+      <c r="C77" s="12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D77" s="12">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E77" s="12">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B78" s="12">
+        <v>6</v>
+      </c>
+      <c r="C78" s="12">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="D78" s="12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E78" s="12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B79" s="12">
+        <v>6</v>
+      </c>
+      <c r="C79" s="12">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="D79" s="12">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E79" s="12">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" s="12">
+        <v>5</v>
+      </c>
+      <c r="C80" s="12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D80" s="12">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E80" s="12">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="G58:K58"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="I14:I15"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23 E2:E21">
+      <formula1>"R,SR,SSR"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23 F2:F21">
+      <formula1>"很容易,容易,一般,难,很难"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+      <formula1>"T4,T3,T2,T1"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.15" shapeId="5131" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>447675</xdr:colOff>
+                <xdr:row>50</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.15" shapeId="5131" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
 </file>
--- a/Excel/镇魂街/operAct.运营活动.xlsx
+++ b/Excel/镇魂街/operAct.运营活动.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C45BD3-DBE0-4B31-95F4-6BF4E8154743}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="642" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
     <sheet name="卡牌通灵" sheetId="26" r:id="rId2"/>
     <sheet name="#卡牌投放思路" sheetId="29" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="193">
   <si>
     <t>sheet名</t>
   </si>
@@ -435,10 +436,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>通灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>I</t>
     </r>
@@ -612,10 +609,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>第20次抽将</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>第10次抽将</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -780,10 +773,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>抽卡概率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>普通掉落</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -792,29 +781,61 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>第40、80次抽将</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>80次抽将</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>第40、80次抽将</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>食火蜥</t>
+  </si>
+  <si>
+    <t>前期掉落2（21~39）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通掉落-低抽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡价值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡权重-低抽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通掉落-高抽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40次抽将</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40次抽将，60次抽将</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40次抽将，60次抽将</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通灵，60次抽将</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第20次抽将，40次抽将</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽卡权重-高抽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1046,7 +1067,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1060,7 +1081,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1078,15 +1098,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1118,21 +1129,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="5" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4"/>
-    <cellStyle name="Normal" xfId="1"/>
+    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10"/>
-    <cellStyle name="超链接 2" xfId="11"/>
-    <cellStyle name="大标题" xfId="3"/>
-    <cellStyle name="横向标题" xfId="5"/>
-    <cellStyle name="文本" xfId="9"/>
-    <cellStyle name="无效" xfId="6"/>
-    <cellStyle name="因变Grid" xfId="7"/>
-    <cellStyle name="英文标题" xfId="12"/>
-    <cellStyle name="中文标题" xfId="2"/>
-    <cellStyle name="纵向标题" xfId="8"/>
+    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1152,19 +1166,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:colOff>952500</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>42024</xdr:rowOff>
+      <xdr:rowOff>13449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1177,7 +1197,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8877300" y="5019676"/>
+          <a:off x="9172575" y="4991101"/>
           <a:ext cx="7038975" cy="3804398"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1208,6 +1228,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5131"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1504,7 +1527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1619,7 +1642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1645,52 +1668,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1805,7 +1828,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -1845,13 +1868,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1883,13 +1906,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E6" s="3">
         <v>1</v>
@@ -1921,13 +1944,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
@@ -1963,13 +1986,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -2003,67 +2026,66 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AG80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" topLeftCell="K49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="54.5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="30" style="5" customWidth="1"/>
-    <col min="11" max="11" width="23.75" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="34.875" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
+    <col min="11" max="11" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K1" s="7" t="s">
+      <c r="H1" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>116</v>
+      <c r="A2" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -2083,15 +2105,15 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J2" s="3"/>
-      <c r="K2" s="8" t="s">
-        <v>104</v>
+      <c r="K2" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>64</v>
       </c>
@@ -2110,13 +2132,13 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="8"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="3" t="s">
         <v>66</v>
       </c>
@@ -2133,26 +2155,26 @@
         <v>91</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K4" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>120</v>
+      <c r="A5" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>86</v>
@@ -2165,20 +2187,20 @@
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>133</v>
+        <v>190</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K5" s="8"/>
+        <v>134</v>
+      </c>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>60</v>
@@ -2193,25 +2215,25 @@
         <v>91</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K6" s="8"/>
+        <v>134</v>
+      </c>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>121</v>
+      <c r="A7" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>58</v>
@@ -2225,21 +2247,21 @@
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="13" t="s">
-        <v>183</v>
+      <c r="I7" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K7" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="19"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
@@ -2250,16 +2272,16 @@
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="13" t="s">
-        <v>183</v>
+      <c r="I8" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K8" s="8"/>
+        <v>134</v>
+      </c>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
@@ -2275,23 +2297,23 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="13" t="s">
-        <v>183</v>
+      <c r="I9" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K9" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>129</v>
+      <c r="A10" s="11" t="s">
+        <v>128</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
@@ -2302,16 +2324,16 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="17" t="s">
-        <v>134</v>
+      <c r="I10" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>68</v>
       </c>
@@ -2327,16 +2349,16 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="23"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>105</v>
+        <v>136</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="3" t="s">
         <v>65</v>
       </c>
@@ -2352,14 +2374,14 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="23"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="8"/>
+      <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="14" t="s">
-        <v>187</v>
+      <c r="A13" s="12"/>
+      <c r="B13" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>77</v>
@@ -2373,15 +2395,15 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="24"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="K13" s="11"/>
+        <v>138</v>
+      </c>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>69</v>
@@ -2398,17 +2420,17 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="17" t="s">
-        <v>186</v>
+      <c r="I14" s="9" t="s">
+        <v>188</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="K14" s="11"/>
+        <v>134</v>
+      </c>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>71</v>
@@ -2418,22 +2440,24 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>95</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="24"/>
+      <c r="I15" s="9" t="s">
+        <v>188</v>
+      </c>
       <c r="J15" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>130</v>
+      <c r="A16" s="13" t="s">
+        <v>129</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>88</v>
@@ -2451,13 +2475,13 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="4" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="23"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="3" t="s">
         <v>72</v>
       </c>
@@ -2474,13 +2498,13 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="4" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="24"/>
+      <c r="A18" s="20"/>
       <c r="B18" s="3" t="s">
         <v>73</v>
       </c>
@@ -2489,7 +2513,7 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>95</v>
@@ -2497,14 +2521,14 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
-        <v>127</v>
+      <c r="A19" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>67</v>
@@ -2520,19 +2544,19 @@
         <v>98</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4" t="s">
-        <v>101</v>
+        <v>189</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="9" t="s">
-        <v>109</v>
+      <c r="K19" s="8" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="3" t="s">
         <v>75</v>
       </c>
@@ -2549,15 +2573,15 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="3" t="s">
         <v>74</v>
       </c>
@@ -2568,7 +2592,7 @@
         <v>87</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>98</v>
@@ -2578,11 +2602,11 @@
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="9" t="s">
-        <v>110</v>
+      <c r="K21" s="8" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -2593,798 +2617,1995 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="54" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-    </row>
-    <row r="55" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+    <row r="54" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="T54" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="16"/>
+      <c r="AB54" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC54" s="16"/>
+      <c r="AD54" s="16"/>
+      <c r="AE54" s="16"/>
+      <c r="AF54" s="16"/>
+      <c r="AG54" s="16"/>
+    </row>
+    <row r="55" spans="1:33" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="D55" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="F55" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D55" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="E55" s="7" t="s">
+      <c r="T55" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="U55" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="V55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="W55" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="X55" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y55" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB55" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC55" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AD55" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE55" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF55" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG55" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>1</v>
+      </c>
+      <c r="B56" s="3">
+        <v>5</v>
+      </c>
+      <c r="C56" s="3">
+        <v>15</v>
+      </c>
+      <c r="D56" s="3">
+        <v>50</v>
+      </c>
+      <c r="E56" s="3">
+        <v>100</v>
+      </c>
+      <c r="F56" s="3">
+        <v>250</v>
+      </c>
+      <c r="T56" s="3">
+        <v>1</v>
+      </c>
+      <c r="U56" s="3">
+        <v>1</v>
+      </c>
+      <c r="V56" s="3">
+        <v>1</v>
+      </c>
+      <c r="W56" s="3">
+        <v>1</v>
+      </c>
+      <c r="X56" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AB56" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AC56" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AD56" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE56" s="3">
+        <v>2</v>
+      </c>
+      <c r="AF56" s="3">
+        <v>4</v>
+      </c>
+      <c r="AG56" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="G58" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
+      <c r="M58" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+      <c r="T58" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="AB58" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="AC58" s="16"/>
+      <c r="AD58" s="16"/>
+      <c r="AE58" s="16"/>
+      <c r="AF58" s="16"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <f>SUM(D61:D80)</f>
+        <v>4064.6666666666661</v>
+      </c>
+      <c r="J59">
+        <f>SUM(J61:J71)</f>
+        <v>3886.6666666666661</v>
+      </c>
+      <c r="P59">
+        <f>SUM(P61:P74)</f>
+        <v>4006.6666666666661</v>
+      </c>
+      <c r="W59">
+        <f>SUM(W61:W80)</f>
+        <v>4045.6666666666661</v>
+      </c>
+      <c r="AE59">
+        <f>SUM(AE61:AE80)</f>
+        <v>2456.0000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:33" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q60" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="T60" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="U60" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="V60" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="W60" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="X60" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AB60" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC60" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD60" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE60" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AF60" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="12">
-        <v>1</v>
-      </c>
-      <c r="B56" s="12">
-        <v>5</v>
-      </c>
-      <c r="C56" s="12">
-        <v>15</v>
-      </c>
-      <c r="D56" s="12">
-        <v>50</v>
-      </c>
-      <c r="E56" s="12">
-        <v>100</v>
-      </c>
-      <c r="F56" s="12">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="G58" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="D59" s="5">
-        <f>SUM(D61:D80)</f>
-        <v>4051.3333333333326</v>
-      </c>
-      <c r="J59" s="5">
-        <f>SUM(J61:J74)</f>
-        <v>3946.6666666666661</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K60" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B61" s="12">
-        <v>1</v>
-      </c>
-      <c r="C61" s="12">
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3">
         <f>INDEX($A$56:$F$56,B61)</f>
         <v>1</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="3">
         <f>1000/C61</f>
         <v>1000</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E61" s="3">
         <f>10000-SUM(E62:E80)</f>
-        <v>2466</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="H61" s="12">
-        <v>1</v>
-      </c>
-      <c r="I61" s="12">
+        <v>2460</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1</v>
+      </c>
+      <c r="I61" s="3">
         <f>INDEX($A$56:$F$56,H61)</f>
         <v>1</v>
       </c>
-      <c r="J61" s="12">
+      <c r="J61" s="3">
         <f>1000/I61</f>
         <v>1000</v>
       </c>
-      <c r="K61" s="12">
-        <f>10000-SUM(K62:K74)</f>
-        <v>2531</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="B62" s="12">
-        <v>1</v>
-      </c>
-      <c r="C62" s="12">
+      <c r="K61" s="3">
+        <f>10000-SUM(K62:K71)</f>
+        <v>2570</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="N61" s="3">
+        <v>1</v>
+      </c>
+      <c r="O61" s="3">
+        <f>INDEX($A$56:$F$56,N61)</f>
+        <v>1</v>
+      </c>
+      <c r="P61" s="3">
+        <f>1000/O61</f>
+        <v>1000</v>
+      </c>
+      <c r="Q61" s="3">
+        <f>10000-SUM(Q62:Q74)</f>
+        <v>2604</v>
+      </c>
+      <c r="T61" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="U61" s="3">
+        <v>1</v>
+      </c>
+      <c r="V61" s="3">
+        <f>INDEX($A$56:$F$56,U61)</f>
+        <v>1</v>
+      </c>
+      <c r="W61" s="3">
+        <f>1000/V61*INDEX($T$56:$Y$56,U61)</f>
+        <v>1000</v>
+      </c>
+      <c r="X61" s="3">
+        <f>10000-SUM(X62:X80)</f>
+        <v>2474</v>
+      </c>
+      <c r="AB61" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="3">
+        <f>INDEX($A$56:$F$56,AC61)</f>
+        <v>1</v>
+      </c>
+      <c r="AE61" s="3">
+        <f>1000/AD61*INDEX($AB$56:$AG$56,AC61)</f>
+        <v>500</v>
+      </c>
+      <c r="AF61" s="3">
+        <f>10000-SUM(AF62:AF80)</f>
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+      <c r="C62" s="3">
         <f t="shared" ref="C62:C80" si="0">INDEX($A$56:$F$56,B62)</f>
         <v>1</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="3">
         <f t="shared" ref="D62:D80" si="1">1000/C62</f>
         <v>1000</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="3">
         <f t="shared" ref="E62:E80" si="2">ROUND(10000*D62/$D$59,0)</f>
-        <v>2468</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H62" s="12">
-        <v>1</v>
-      </c>
-      <c r="I62" s="12">
+        <v>2460</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1</v>
+      </c>
+      <c r="I62" s="3">
         <f t="shared" ref="I62:I64" si="3">INDEX($A$56:$F$56,H62)</f>
         <v>1</v>
       </c>
-      <c r="J62" s="12">
+      <c r="J62" s="3">
         <f t="shared" ref="J62:J64" si="4">1000/I62</f>
         <v>1000</v>
       </c>
-      <c r="K62" s="12">
+      <c r="K62" s="3">
         <f>ROUND(10000*J62/J$59,0)</f>
-        <v>2534</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B63" s="12">
+        <v>2573</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1</v>
+      </c>
+      <c r="O62" s="3">
+        <f t="shared" ref="O62:O74" si="5">INDEX($A$56:$F$56,N62)</f>
+        <v>1</v>
+      </c>
+      <c r="P62" s="3">
+        <f t="shared" ref="P62:P74" si="6">1000/O62</f>
+        <v>1000</v>
+      </c>
+      <c r="Q62" s="3">
+        <f t="shared" ref="Q62:Q74" si="7">ROUND(10000*P62/$D$59,0)</f>
+        <v>2460</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="U62" s="3">
+        <v>1</v>
+      </c>
+      <c r="V62" s="3">
+        <f t="shared" ref="V62:V80" si="8">INDEX($A$56:$F$56,U62)</f>
+        <v>1</v>
+      </c>
+      <c r="W62" s="3">
+        <f t="shared" ref="W62:W80" si="9">1000/V62*INDEX($T$56:$Y$56,U62)</f>
+        <v>1000</v>
+      </c>
+      <c r="X62" s="3">
+        <f>ROUND(10000*W62/$W$59,0)</f>
+        <v>2472</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="3">
+        <f t="shared" ref="AD62:AD66" si="10">INDEX($A$56:$F$56,AC62)</f>
+        <v>1</v>
+      </c>
+      <c r="AE62" s="3">
+        <f t="shared" ref="AE62:AE80" si="11">1000/AD62*INDEX($AB$56:$AG$56,AC62)</f>
+        <v>500</v>
+      </c>
+      <c r="AF62" s="3">
+        <f>ROUND(10000*AE62/$AE$59,0)</f>
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="63" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="3">
         <v>2</v>
       </c>
-      <c r="C63" s="12">
+      <c r="C63" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="3">
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="3">
         <f t="shared" si="2"/>
-        <v>494</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="H63" s="12">
+        <v>492</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="H63" s="3">
         <v>2</v>
       </c>
-      <c r="I63" s="12">
+      <c r="I63" s="3">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="J63" s="12">
+      <c r="J63" s="3">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="K63" s="12">
-        <f t="shared" ref="K63:K74" si="5">ROUND(10000*J63/J$59,0)</f>
-        <v>507</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B64" s="12">
+      <c r="K63" s="3">
+        <f t="shared" ref="K63:K71" si="12">ROUND(10000*J63/J$59,0)</f>
+        <v>515</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N63" s="3">
+        <v>2</v>
+      </c>
+      <c r="O63" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P63" s="3">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q63" s="3">
+        <f t="shared" si="7"/>
+        <v>492</v>
+      </c>
+      <c r="T63" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="U63" s="3">
+        <v>2</v>
+      </c>
+      <c r="V63" s="3">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="W63" s="3">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="X63" s="3">
+        <f t="shared" ref="X63:X80" si="13">ROUND(10000*W63/$W$59,0)</f>
+        <v>494</v>
+      </c>
+      <c r="AB63" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD63" s="3">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AE63" s="3">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="AF63" s="3">
+        <f t="shared" ref="AF63:AF80" si="14">ROUND(10000*AE63/$AE$59,0)</f>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="64" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" s="3">
         <v>3</v>
       </c>
-      <c r="C64" s="12">
+      <c r="C64" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="3">
         <f t="shared" si="1"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="3">
         <f t="shared" si="2"/>
-        <v>165</v>
-      </c>
-      <c r="G64" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="H64" s="12">
+        <v>164</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H64" s="3">
         <v>3</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I64" s="3">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J64" s="3">
         <f t="shared" si="4"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="K64" s="12">
+      <c r="K64" s="3">
+        <f t="shared" si="12"/>
+        <v>172</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N64" s="3">
+        <v>3</v>
+      </c>
+      <c r="O64" s="3">
         <f t="shared" si="5"/>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" s="12">
+        <v>15</v>
+      </c>
+      <c r="P64" s="3">
+        <f t="shared" si="6"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="Q64" s="3">
+        <f t="shared" si="7"/>
+        <v>164</v>
+      </c>
+      <c r="T64" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="U64" s="3">
         <v>3</v>
       </c>
-      <c r="C65" s="12">
+      <c r="V64" s="3">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="W64" s="3">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="X64" s="3">
+        <f t="shared" si="13"/>
+        <v>165</v>
+      </c>
+      <c r="AB64" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD64" s="3">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="AE64" s="3">
+        <f t="shared" si="11"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="AF64" s="3">
+        <f t="shared" si="14"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" s="3">
+        <v>3</v>
+      </c>
+      <c r="C65" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="3">
         <f t="shared" si="1"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="3">
         <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H65" s="3">
+        <v>3</v>
+      </c>
+      <c r="I65" s="3">
+        <f t="shared" ref="I65:I71" si="15">INDEX($A$56:$F$56,H65)</f>
+        <v>15</v>
+      </c>
+      <c r="J65" s="3">
+        <f t="shared" ref="J65:J71" si="16">1000/I65</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K65" s="3">
+        <f t="shared" si="12"/>
+        <v>172</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N65" s="3">
+        <v>3</v>
+      </c>
+      <c r="O65" s="3">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="P65" s="3">
+        <f t="shared" si="6"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="Q65" s="3">
+        <f t="shared" si="7"/>
+        <v>164</v>
+      </c>
+      <c r="T65" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="U65" s="3">
+        <v>3</v>
+      </c>
+      <c r="V65" s="3">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="W65" s="3">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="X65" s="3">
+        <f t="shared" si="13"/>
         <v>165</v>
       </c>
-      <c r="G65" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="H65" s="12">
+      <c r="AB65" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC65" s="3">
         <v>3</v>
       </c>
-      <c r="I65" s="12">
-        <f t="shared" ref="I65:I74" si="6">INDEX($A$56:$F$56,H65)</f>
+      <c r="AD65" s="3">
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
-      <c r="J65" s="12">
-        <f t="shared" ref="J65:J74" si="7">1000/I65</f>
+      <c r="AE65" s="3">
+        <f t="shared" si="11"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="K65" s="12">
-        <f t="shared" si="5"/>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B66" s="12">
+      <c r="AF65" s="3">
+        <f t="shared" si="14"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B66" s="3">
         <v>3</v>
       </c>
-      <c r="C66" s="12">
+      <c r="C66" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="3">
         <f t="shared" si="1"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="3">
         <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H66" s="3">
+        <v>4</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" si="15"/>
+        <v>50</v>
+      </c>
+      <c r="J66" s="3">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="K66" s="3">
+        <f t="shared" si="12"/>
+        <v>51</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N66" s="3">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="P66" s="3">
+        <f t="shared" si="6"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="Q66" s="3">
+        <f t="shared" si="7"/>
+        <v>164</v>
+      </c>
+      <c r="T66" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="U66" s="3">
+        <v>3</v>
+      </c>
+      <c r="V66" s="3">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="W66" s="3">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="X66" s="3">
+        <f t="shared" si="13"/>
         <v>165</v>
       </c>
-      <c r="G66" s="12" t="s">
+      <c r="AB66" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD66" s="3">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="AE66" s="3">
+        <f t="shared" si="11"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="AF66" s="3">
+        <f t="shared" si="14"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B67" s="3">
+        <v>4</v>
+      </c>
+      <c r="C67" s="3">
+        <f>INDEX($A$56:$F$56,B67)*0.6</f>
+        <v>30</v>
+      </c>
+      <c r="D67" s="3">
+        <f t="shared" si="1"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="F67">
+        <v>3</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="H67" s="3">
+        <v>3</v>
+      </c>
+      <c r="I67" s="3">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="J67" s="3">
+        <f t="shared" si="16"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K67" s="3">
+        <f t="shared" si="12"/>
+        <v>172</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="N67" s="3">
+        <v>4</v>
+      </c>
+      <c r="O67" s="3">
+        <f>INDEX($A$56:$F$56,N67)*0.6</f>
+        <v>30</v>
+      </c>
+      <c r="P67" s="3">
+        <f t="shared" si="6"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="Q67" s="3">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="T67" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="U67" s="3">
+        <v>4</v>
+      </c>
+      <c r="V67" s="3">
+        <f>INDEX($A$56:$F$56,U67)*0.6</f>
+        <v>30</v>
+      </c>
+      <c r="W67" s="3">
+        <f t="shared" si="9"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="X67" s="3">
+        <f t="shared" si="13"/>
+        <v>82</v>
+      </c>
+      <c r="AB67" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC67" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD67" s="3">
+        <f>INDEX($A$56:$F$56,AC67)*0.6</f>
+        <v>30</v>
+      </c>
+      <c r="AE67" s="3">
+        <f t="shared" si="11"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="AF67" s="3">
+        <f t="shared" si="14"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="3">
+        <v>3</v>
+      </c>
+      <c r="C68" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D68" s="3">
+        <f t="shared" si="1"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H68" s="3">
+        <v>2</v>
+      </c>
+      <c r="I68" s="3">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="J68" s="3">
+        <f t="shared" si="16"/>
+        <v>200</v>
+      </c>
+      <c r="K68" s="3">
+        <f t="shared" si="12"/>
+        <v>515</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N68" s="3">
+        <v>3</v>
+      </c>
+      <c r="O68" s="3">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="P68" s="3">
+        <f t="shared" si="6"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="Q68" s="3">
+        <f t="shared" si="7"/>
+        <v>164</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="U68" s="3">
+        <v>3</v>
+      </c>
+      <c r="V68" s="3">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="W68" s="3">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="X68" s="3">
+        <f t="shared" si="13"/>
+        <v>165</v>
+      </c>
+      <c r="AB68" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD68" s="3">
+        <f t="shared" ref="AD68:AD80" si="17">INDEX($A$56:$F$56,AC68)</f>
+        <v>15</v>
+      </c>
+      <c r="AE68" s="3">
+        <f t="shared" si="11"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="AF68" s="3">
+        <f t="shared" si="14"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B69" s="3">
+        <v>2</v>
+      </c>
+      <c r="C69" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E69" s="3">
+        <f t="shared" si="2"/>
+        <v>492</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H69" s="3">
+        <v>3</v>
+      </c>
+      <c r="I69" s="3">
+        <f t="shared" si="15"/>
+        <v>15</v>
+      </c>
+      <c r="J69" s="3">
+        <f t="shared" si="16"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="K69" s="3">
+        <f t="shared" si="12"/>
+        <v>172</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N69" s="3">
+        <v>2</v>
+      </c>
+      <c r="O69" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P69" s="3">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q69" s="3">
+        <f t="shared" si="7"/>
+        <v>492</v>
+      </c>
+      <c r="T69" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="U69" s="3">
+        <v>2</v>
+      </c>
+      <c r="V69" s="3">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="W69" s="3">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="X69" s="3">
+        <f t="shared" si="13"/>
+        <v>494</v>
+      </c>
+      <c r="AB69" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD69" s="3">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="AE69" s="3">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="AF69" s="3">
+        <f t="shared" si="14"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B70" s="3">
+        <v>3</v>
+      </c>
+      <c r="C70" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D70" s="3">
+        <f t="shared" si="1"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E70" s="3">
+        <f t="shared" si="2"/>
+        <v>164</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
+      <c r="I70" s="3">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="J70" s="3">
+        <f t="shared" si="16"/>
+        <v>1000</v>
+      </c>
+      <c r="K70" s="3">
+        <f t="shared" si="12"/>
+        <v>2573</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="N70" s="3">
+        <v>3</v>
+      </c>
+      <c r="O70" s="3">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="P70" s="3">
+        <f t="shared" si="6"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="Q70" s="3">
+        <f t="shared" si="7"/>
+        <v>164</v>
+      </c>
+      <c r="T70" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="U70" s="3">
+        <v>3</v>
+      </c>
+      <c r="V70" s="3">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="W70" s="3">
+        <f t="shared" si="9"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="X70" s="3">
+        <f t="shared" si="13"/>
+        <v>165</v>
+      </c>
+      <c r="AB70" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD70" s="3">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="AE70" s="3">
+        <f t="shared" si="11"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="AF70" s="3">
+        <f t="shared" si="14"/>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" s="3">
+        <v>1</v>
+      </c>
+      <c r="C71" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="D71" s="3">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="E71" s="3">
+        <f t="shared" si="2"/>
+        <v>2460</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="H71" s="3">
+        <v>2</v>
+      </c>
+      <c r="I71" s="3">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="J71" s="3">
+        <f t="shared" si="16"/>
+        <v>200</v>
+      </c>
+      <c r="K71" s="3">
+        <f t="shared" si="12"/>
+        <v>515</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="N71" s="3">
+        <v>1</v>
+      </c>
+      <c r="O71" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P71" s="3">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="Q71" s="3">
+        <f t="shared" si="7"/>
+        <v>2460</v>
+      </c>
+      <c r="T71" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="U71" s="3">
+        <v>1</v>
+      </c>
+      <c r="V71" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="W71" s="3">
+        <f t="shared" si="9"/>
+        <v>1000</v>
+      </c>
+      <c r="X71" s="3">
+        <f t="shared" si="13"/>
+        <v>2472</v>
+      </c>
+      <c r="AB71" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD71" s="3">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="AE71" s="3">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="AF71" s="3">
+        <f t="shared" si="14"/>
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2</v>
+      </c>
+      <c r="C72" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D72" s="3">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="E72" s="3">
+        <f t="shared" si="2"/>
+        <v>492</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="M72" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N72" s="3">
+        <v>2</v>
+      </c>
+      <c r="O72" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="Q72" s="3">
+        <f t="shared" si="7"/>
+        <v>492</v>
+      </c>
+      <c r="T72" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="U72" s="3">
+        <v>2</v>
+      </c>
+      <c r="V72" s="3">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="W72" s="3">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+      <c r="X72" s="3">
+        <f t="shared" si="13"/>
+        <v>494</v>
+      </c>
+      <c r="AB72" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>2</v>
+      </c>
+      <c r="AD72" s="3">
+        <f t="shared" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="AE72" s="3">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="AF72" s="3">
+        <f t="shared" si="14"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B73" s="3">
         <v>4</v>
       </c>
-      <c r="I66" s="12">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="J66" s="12">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="K66" s="12">
-        <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B67" s="12">
-        <v>4</v>
-      </c>
-      <c r="C67" s="12">
+      <c r="C73" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D73" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E73" s="3">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="G67" s="12" t="s">
+      <c r="F73">
+        <v>3</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="M73" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N73" s="3">
+        <v>4</v>
+      </c>
+      <c r="O73" s="3">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="P73" s="3">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="Q73" s="3">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="T73" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="U73" s="3">
+        <v>4</v>
+      </c>
+      <c r="V73" s="3">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="W73" s="3">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="X73" s="3">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="AB73" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD73" s="3">
+        <f t="shared" si="17"/>
+        <v>50</v>
+      </c>
+      <c r="AE73" s="3">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="AF73" s="3">
+        <f t="shared" si="14"/>
         <v>163</v>
       </c>
-      <c r="H67" s="12">
-        <v>3</v>
-      </c>
-      <c r="I67" s="12">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="J67" s="12">
-        <f t="shared" si="7"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="K67" s="12">
-        <f t="shared" si="5"/>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B68" s="12">
-        <v>3</v>
-      </c>
-      <c r="C68" s="12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D68" s="12">
-        <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="E68" s="12">
-        <f t="shared" si="2"/>
-        <v>165</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="H68" s="12">
-        <v>2</v>
-      </c>
-      <c r="I68" s="12">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="J68" s="12">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="K68" s="12">
-        <f t="shared" si="5"/>
-        <v>507</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B69" s="12">
-        <v>2</v>
-      </c>
-      <c r="C69" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D69" s="12">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="E69" s="12">
-        <f t="shared" si="2"/>
-        <v>494</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="H69" s="12">
-        <v>3</v>
-      </c>
-      <c r="I69" s="12">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="J69" s="12">
-        <f t="shared" si="7"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="K69" s="12">
-        <f t="shared" si="5"/>
-        <v>169</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="B70" s="12">
-        <v>3</v>
-      </c>
-      <c r="C70" s="12">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="D70" s="12">
-        <f t="shared" si="1"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="E70" s="12">
-        <f t="shared" si="2"/>
-        <v>165</v>
-      </c>
-      <c r="G70" s="12" t="s">
+    </row>
+    <row r="74" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H70" s="12">
-        <v>1</v>
-      </c>
-      <c r="I70" s="12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="J70" s="12">
-        <f t="shared" si="7"/>
-        <v>1000</v>
-      </c>
-      <c r="K70" s="12">
-        <f t="shared" si="5"/>
-        <v>2534</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B71" s="12">
-        <v>1</v>
-      </c>
-      <c r="C71" s="12">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D71" s="12">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="E71" s="12">
-        <f t="shared" si="2"/>
-        <v>2468</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="H71" s="12">
-        <v>2</v>
-      </c>
-      <c r="I71" s="12">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="J71" s="12">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="K71" s="12">
-        <f t="shared" si="5"/>
-        <v>507</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="14" t="s">
-        <v>187</v>
-      </c>
-      <c r="B72" s="12">
-        <v>2</v>
-      </c>
-      <c r="C72" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D72" s="12">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="E72" s="12">
-        <f t="shared" si="2"/>
-        <v>494</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H72" s="12">
+      <c r="B74" s="3">
         <v>4</v>
       </c>
-      <c r="I72" s="12">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="J72" s="12">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="K72" s="12">
-        <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A73" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B73" s="12">
-        <v>4</v>
-      </c>
-      <c r="C73" s="12">
+      <c r="C74" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D74" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E73" s="12">
+      <c r="E74" s="3">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="G73" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="H73" s="12">
+      <c r="F74">
+        <v>3</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="M74" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="N74" s="3">
         <v>4</v>
       </c>
-      <c r="I73" s="12">
+      <c r="O74" s="3">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="P74" s="3">
         <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="Q74" s="3">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U74" s="3">
+        <v>4</v>
+      </c>
+      <c r="V74" s="3">
+        <f t="shared" si="8"/>
         <v>50</v>
       </c>
-      <c r="J73" s="12">
-        <f t="shared" si="7"/>
+      <c r="W74" s="3">
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="K73" s="12">
-        <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B74" s="12">
+      <c r="X74" s="3">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="AB74" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC74" s="3">
         <v>4</v>
       </c>
-      <c r="C74" s="12">
-        <f t="shared" si="0"/>
+      <c r="AD74" s="3">
+        <f t="shared" si="17"/>
         <v>50</v>
       </c>
-      <c r="D74" s="12">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="E74" s="12">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-      <c r="G74" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="H74" s="12">
-        <v>4</v>
-      </c>
-      <c r="I74" s="12">
-        <f t="shared" si="6"/>
-        <v>50</v>
-      </c>
-      <c r="J74" s="12">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="K74" s="12">
-        <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B75" s="12">
+      <c r="AE74" s="3">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="AF74" s="3">
+        <f t="shared" si="14"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B75" s="3">
         <v>5</v>
       </c>
-      <c r="C75" s="12">
+      <c r="C75" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E75" s="12">
+      <c r="E75" s="3">
         <f t="shared" si="2"/>
         <v>25</v>
+      </c>
+      <c r="F75">
+        <v>3</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
-    </row>
-    <row r="76" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B76" s="12">
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="T75" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="U75" s="3">
         <v>5</v>
       </c>
-      <c r="C76" s="12">
+      <c r="V75" s="3">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="W75" s="3">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="X75" s="3">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="AB75" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD75" s="3">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AE75" s="3">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="AF75" s="3">
+        <f t="shared" si="14"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" s="3">
+        <v>5</v>
+      </c>
+      <c r="C76" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E76" s="12">
+      <c r="E76" s="3">
         <f t="shared" si="2"/>
         <v>25</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
-    </row>
-    <row r="77" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="B77" s="12">
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="T76" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="U76" s="3">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="W76" s="3">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="AB76" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD76" s="3">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AE76" s="3">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="AF76" s="3">
+        <f t="shared" si="14"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B77" s="3">
         <v>4</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="3">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="3">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="3">
         <f t="shared" si="2"/>
         <v>49</v>
+      </c>
+      <c r="F77">
+        <v>3</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
-    </row>
-    <row r="78" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B78" s="12">
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="T77" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="U77" s="3">
+        <v>4</v>
+      </c>
+      <c r="V77" s="3">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="W77" s="3">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="X77" s="3">
+        <f t="shared" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="AB77" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD77" s="3">
+        <f t="shared" si="17"/>
+        <v>50</v>
+      </c>
+      <c r="AE77" s="3">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="AF77" s="3">
+        <f t="shared" si="14"/>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="3">
         <v>6</v>
       </c>
-      <c r="C78" s="12">
+      <c r="C78" s="3">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D78" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
+      </c>
+      <c r="F78">
+        <v>4</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
-    </row>
-    <row r="79" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A79" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="B79" s="12">
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="T78" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="U78" s="3">
         <v>6</v>
       </c>
-      <c r="C79" s="12">
+      <c r="V78" s="3">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="W78" s="3">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="X78" s="3">
+        <f t="shared" si="13"/>
+        <v>5</v>
+      </c>
+      <c r="AB78" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AC78" s="3">
+        <v>6</v>
+      </c>
+      <c r="AD78" s="3">
+        <f t="shared" si="17"/>
+        <v>250</v>
+      </c>
+      <c r="AE78" s="3">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AF78" s="3">
+        <f t="shared" si="14"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="3">
+        <v>6</v>
+      </c>
+      <c r="C79" s="3">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E79" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
+      </c>
+      <c r="F79">
+        <v>4</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
-    </row>
-    <row r="80" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B80" s="12">
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="T79" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="U79" s="3">
+        <v>6</v>
+      </c>
+      <c r="V79" s="3">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="W79" s="3">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="X79" s="3">
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="C80" s="12">
+      <c r="AB79" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC79" s="3">
+        <v>6</v>
+      </c>
+      <c r="AD79" s="3">
+        <f t="shared" si="17"/>
+        <v>250</v>
+      </c>
+      <c r="AE79" s="3">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AF79" s="3">
+        <f t="shared" si="14"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B80" s="3">
+        <v>5</v>
+      </c>
+      <c r="C80" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="3">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="3">
         <f t="shared" si="2"/>
         <v>25</v>
+      </c>
+      <c r="F80">
+        <v>3</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="T80" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="U80" s="3">
+        <v>5</v>
+      </c>
+      <c r="V80" s="3">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="W80" s="3">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="X80" s="3">
+        <f t="shared" si="13"/>
+        <v>12</v>
+      </c>
+      <c r="AB80" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC80" s="3">
+        <v>5</v>
+      </c>
+      <c r="AD80" s="3">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="AE80" s="3">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="AF80" s="3">
+        <f t="shared" si="14"/>
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="T58:X58"/>
+    <mergeCell ref="T54:Y54"/>
+    <mergeCell ref="AB54:AG54"/>
+    <mergeCell ref="AB58:AF58"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A9"/>
@@ -3395,28 +4616,28 @@
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="I10:I13"/>
-    <mergeCell ref="I14:I15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23 E2:E21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23 E2:E21" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"R,SR,SSR"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23 F2:F21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23 F2:F21" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"很容易,容易,一般,难,很难"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0200-000002000000}">
       <formula1>"T4,T3,T2,T1"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="5131" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
+        <oleObject progId="Visio.Drawing.15" shapeId="5131" r:id="rId4">
+          <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -3435,7 +4656,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="5131" r:id="rId3"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="5131" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/Excel/镇魂街/operAct.运营活动.xlsx
+++ b/Excel/镇魂街/operAct.运营活动.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53C45BD3-DBE0-4B31-95F4-6BF4E8154743}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="642" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="642" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -835,7 +834,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1099,6 +1098,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="5" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1129,24 +1131,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="5" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="13">
-    <cellStyle name="Grid" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Grid" xfId="4"/>
+    <cellStyle name="Normal" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="超链接 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="大标题" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="横向标题" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="文本" xfId="9" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="无效" xfId="6" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="因变Grid" xfId="7" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="英文标题" xfId="12" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="中文标题" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="纵向标题" xfId="8" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="常规 2" xfId="10"/>
+    <cellStyle name="超链接 2" xfId="11"/>
+    <cellStyle name="大标题" xfId="3"/>
+    <cellStyle name="横向标题" xfId="5"/>
+    <cellStyle name="文本" xfId="9"/>
+    <cellStyle name="无效" xfId="6"/>
+    <cellStyle name="因变Grid" xfId="7"/>
+    <cellStyle name="英文标题" xfId="12"/>
+    <cellStyle name="中文标题" xfId="2"/>
+    <cellStyle name="纵向标题" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1166,15 +1165,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
+      <xdr:colOff>866775</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>13449</xdr:rowOff>
+      <xdr:rowOff>70599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1197,7 +1196,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9172575" y="4991101"/>
+          <a:off x="9086850" y="5048251"/>
           <a:ext cx="7038975" cy="3804398"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1527,7 +1526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1642,7 +1641,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2026,11 +2025,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2084,7 +2083,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2113,7 +2112,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
         <v>64</v>
       </c>
@@ -2138,7 +2137,7 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>66</v>
       </c>
@@ -2167,7 +2166,7 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>119</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2198,7 +2197,7 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>118</v>
       </c>
@@ -2229,7 +2228,7 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>120</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2256,7 +2255,7 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="4" t="s">
         <v>123</v>
       </c>
@@ -2281,7 +2280,7 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
@@ -2306,7 +2305,7 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>128</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2324,7 +2323,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="13" t="s">
+      <c r="I10" s="14" t="s">
         <v>132</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -2333,7 +2332,7 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>68</v>
       </c>
@@ -2349,7 +2348,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="19"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="4" t="s">
         <v>136</v>
       </c>
@@ -2358,7 +2357,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="3" t="s">
         <v>65</v>
       </c>
@@ -2374,12 +2373,12 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="19"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="3"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="4" t="s">
         <v>180</v>
       </c>
@@ -2395,7 +2394,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="21"/>
       <c r="J13" s="4" t="s">
         <v>138</v>
       </c>
@@ -2456,7 +2455,7 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>129</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2481,7 +2480,7 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="3" t="s">
         <v>72</v>
       </c>
@@ -2504,7 +2503,7 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="3" t="s">
         <v>73</v>
       </c>
@@ -2527,7 +2526,7 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="18" t="s">
         <v>126</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2556,7 +2555,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="3" t="s">
         <v>75</v>
       </c>
@@ -2581,7 +2580,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="3" t="s">
         <v>74</v>
       </c>
@@ -2618,30 +2617,30 @@
       <c r="G23" s="1"/>
     </row>
     <row r="54" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="T54" s="16" t="s">
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="T54" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="U54" s="16"/>
-      <c r="V54" s="16"/>
-      <c r="W54" s="16"/>
-      <c r="X54" s="16"/>
-      <c r="Y54" s="16"/>
-      <c r="AB54" s="16" t="s">
+      <c r="U54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="17"/>
+      <c r="X54" s="17"/>
+      <c r="Y54" s="17"/>
+      <c r="AB54" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="AC54" s="16"/>
-      <c r="AD54" s="16"/>
-      <c r="AE54" s="16"/>
-      <c r="AF54" s="16"/>
-      <c r="AG54" s="16"/>
+      <c r="AC54" s="17"/>
+      <c r="AD54" s="17"/>
+      <c r="AE54" s="17"/>
+      <c r="AF54" s="17"/>
+      <c r="AG54" s="17"/>
     </row>
     <row r="55" spans="1:33" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
@@ -2756,41 +2755,41 @@
       </c>
     </row>
     <row r="58" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="G58" s="16" t="s">
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="G58" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16"/>
-      <c r="K58" s="16"/>
-      <c r="M58" s="16" t="s">
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="17"/>
+      <c r="M58" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="N58" s="16"/>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16"/>
-      <c r="Q58" s="16"/>
-      <c r="T58" s="16" t="s">
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="T58" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="U58" s="16"/>
-      <c r="V58" s="16"/>
-      <c r="W58" s="16"/>
-      <c r="X58" s="16"/>
-      <c r="AB58" s="16" t="s">
+      <c r="U58" s="17"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="17"/>
+      <c r="X58" s="17"/>
+      <c r="AB58" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="AC58" s="16"/>
-      <c r="AD58" s="16"/>
-      <c r="AE58" s="16"/>
-      <c r="AF58" s="16"/>
+      <c r="AC58" s="17"/>
+      <c r="AD58" s="17"/>
+      <c r="AE58" s="17"/>
+      <c r="AF58" s="17"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D59">
@@ -2830,7 +2829,7 @@
       <c r="E60" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F60" s="21" t="s">
+      <c r="F60" s="11" t="s">
         <v>192</v>
       </c>
       <c r="G60" s="6" t="s">
@@ -4618,14 +4617,14 @@
     <mergeCell ref="I10:I13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23 E2:E21" xr:uid="{00000000-0002-0000-0200-000000000000}">
+  <dataValidations disablePrompts="1" count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23 E2:E21">
       <formula1>"R,SR,SSR"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23 F2:F21" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F23 F2:F21">
       <formula1>"很容易,容易,一般,难,很难"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{00000000-0002-0000-0200-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"T4,T3,T2,T1"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4647,9 +4646,9 @@
               </from>
               <to>
                 <xdr:col>8</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
+                <xdr:colOff>457200</xdr:colOff>
                 <xdr:row>50</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>

--- a/Excel/镇魂街/operAct.运营活动.xlsx
+++ b/Excel/镇魂街/operAct.运营活动.xlsx
@@ -1098,8 +1098,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="5" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1115,9 +1118,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1165,15 +1165,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>866775</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>70599</xdr:rowOff>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>108699</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1196,7 +1196,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9086850" y="5048251"/>
+          <a:off x="8953500" y="4905376"/>
           <a:ext cx="7038975" cy="3804398"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1217,9 +1217,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
+          <xdr:colOff>457200</xdr:colOff>
           <xdr:row>50</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2029,7 +2029,7 @@
   <dimension ref="A1:AG80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J54" sqref="J54"/>
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2083,7 +2083,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>115</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2112,7 +2112,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
         <v>64</v>
       </c>
@@ -2137,7 +2137,7 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
         <v>66</v>
       </c>
@@ -2166,7 +2166,7 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>119</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -2197,7 +2197,7 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="4" t="s">
         <v>118</v>
       </c>
@@ -2228,7 +2228,7 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>120</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -2255,7 +2255,7 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="4" t="s">
         <v>123</v>
       </c>
@@ -2280,7 +2280,7 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="4" t="s">
         <v>70</v>
       </c>
@@ -2305,7 +2305,7 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>128</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2323,7 +2323,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="15" t="s">
         <v>132</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -2332,7 +2332,7 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="3" t="s">
         <v>68</v>
       </c>
@@ -2357,7 +2357,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="3" t="s">
         <v>65</v>
       </c>
@@ -2378,7 +2378,7 @@
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
         <v>180</v>
       </c>
@@ -2455,7 +2455,7 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>129</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2617,30 +2617,30 @@
       <c r="G23" s="1"/>
     </row>
     <row r="54" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="T54" s="17" t="s">
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="T54" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="U54" s="17"/>
-      <c r="V54" s="17"/>
-      <c r="W54" s="17"/>
-      <c r="X54" s="17"/>
-      <c r="Y54" s="17"/>
-      <c r="AB54" s="17" t="s">
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="AB54" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="AC54" s="17"/>
-      <c r="AD54" s="17"/>
-      <c r="AE54" s="17"/>
-      <c r="AF54" s="17"/>
-      <c r="AG54" s="17"/>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
     </row>
     <row r="55" spans="1:33" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
@@ -2755,41 +2755,41 @@
       </c>
     </row>
     <row r="58" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="17" t="s">
+      <c r="A58" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="G58" s="17" t="s">
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="G58" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
-      <c r="K58" s="17"/>
-      <c r="M58" s="17" t="s">
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="M58" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="T58" s="17" t="s">
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="T58" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="U58" s="17"/>
-      <c r="V58" s="17"/>
-      <c r="W58" s="17"/>
-      <c r="X58" s="17"/>
-      <c r="AB58" s="17" t="s">
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="AB58" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="AC58" s="17"/>
-      <c r="AD58" s="17"/>
-      <c r="AE58" s="17"/>
-      <c r="AF58" s="17"/>
+      <c r="AC58" s="12"/>
+      <c r="AD58" s="12"/>
+      <c r="AE58" s="12"/>
+      <c r="AF58" s="12"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D59">
@@ -2829,7 +2829,7 @@
       <c r="E60" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="6" t="s">
         <v>192</v>
       </c>
       <c r="G60" s="6" t="s">
@@ -2912,7 +2912,7 @@
         <f>10000-SUM(E62:E80)</f>
         <v>2460</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="11">
         <v>1</v>
       </c>
       <c r="G61" s="3" t="s">
@@ -3007,7 +3007,7 @@
         <f t="shared" ref="E62:E80" si="2">ROUND(10000*D62/$D$59,0)</f>
         <v>2460</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="11">
         <v>1</v>
       </c>
       <c r="G62" s="3" t="s">
@@ -3102,7 +3102,7 @@
         <f t="shared" si="2"/>
         <v>492</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="11">
         <v>1</v>
       </c>
       <c r="G63" s="3" t="s">
@@ -3197,7 +3197,7 @@
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="11">
         <v>2</v>
       </c>
       <c r="G64" s="3" t="s">
@@ -3292,7 +3292,7 @@
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="11">
         <v>2</v>
       </c>
       <c r="G65" s="3" t="s">
@@ -3387,7 +3387,7 @@
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="11">
         <v>2</v>
       </c>
       <c r="G66" s="3" t="s">
@@ -3482,7 +3482,7 @@
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="11">
         <v>3</v>
       </c>
       <c r="G67" s="3" t="s">
@@ -3577,7 +3577,7 @@
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="11">
         <v>2</v>
       </c>
       <c r="G68" s="3" t="s">
@@ -3672,7 +3672,7 @@
         <f t="shared" si="2"/>
         <v>492</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="11">
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
@@ -3767,7 +3767,7 @@
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="11">
         <v>2</v>
       </c>
       <c r="G70" s="3" t="s">
@@ -3862,7 +3862,7 @@
         <f t="shared" si="2"/>
         <v>2460</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="11">
         <v>1</v>
       </c>
       <c r="G71" s="4" t="s">
@@ -3957,7 +3957,7 @@
         <f t="shared" si="2"/>
         <v>492</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="11">
         <v>1</v>
       </c>
       <c r="G72" s="1"/>
@@ -4039,7 +4039,7 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="11">
         <v>3</v>
       </c>
       <c r="G73" s="1"/>
@@ -4121,7 +4121,7 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="11">
         <v>3</v>
       </c>
       <c r="G74" s="1"/>
@@ -4203,7 +4203,7 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="11">
         <v>3</v>
       </c>
       <c r="G75" s="1"/>
@@ -4272,7 +4272,7 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="11">
         <v>3</v>
       </c>
       <c r="G76" s="1"/>
@@ -4341,7 +4341,7 @@
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="11">
         <v>3</v>
       </c>
       <c r="G77" s="1"/>
@@ -4410,7 +4410,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="11">
         <v>4</v>
       </c>
       <c r="G78" s="1"/>
@@ -4479,7 +4479,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="11">
         <v>4</v>
       </c>
       <c r="G79" s="1"/>
@@ -4548,7 +4548,7 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="11">
         <v>3</v>
       </c>
       <c r="G80" s="1"/>
@@ -4600,11 +4600,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="T58:X58"/>
-    <mergeCell ref="T54:Y54"/>
-    <mergeCell ref="AB54:AG54"/>
-    <mergeCell ref="AB58:AF58"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A9"/>
@@ -4615,6 +4610,11 @@
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="I10:I13"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="T58:X58"/>
+    <mergeCell ref="T54:Y54"/>
+    <mergeCell ref="AB54:AG54"/>
+    <mergeCell ref="AB58:AF58"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="3">

--- a/Excel/镇魂街/operAct.运营活动.xlsx
+++ b/Excel/镇魂街/operAct.运营活动.xlsx
@@ -1066,7 +1066,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1101,8 +1101,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1118,6 +1118,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1165,15 +1168,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>108699</xdr:rowOff>
+      <xdr:rowOff>99174</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1196,7 +1199,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8953500" y="4905376"/>
+          <a:off x="8982075" y="4895851"/>
           <a:ext cx="7038975" cy="3804398"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2028,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2348,7 +2351,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="20"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="4" t="s">
         <v>136</v>
       </c>
@@ -2373,7 +2376,7 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="20"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="3"/>
       <c r="K12" s="7"/>
     </row>
@@ -2394,7 +2397,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="21"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="4" t="s">
         <v>138</v>
       </c>
@@ -2480,7 +2483,7 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="3" t="s">
         <v>72</v>
       </c>
@@ -2503,7 +2506,7 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="3" t="s">
         <v>73</v>
       </c>
@@ -2526,7 +2529,7 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="19" t="s">
         <v>126</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2555,7 +2558,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="19"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="3" t="s">
         <v>75</v>
       </c>
@@ -2580,7 +2583,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="3" t="s">
         <v>74</v>
       </c>
@@ -2617,30 +2620,30 @@
       <c r="G23" s="1"/>
     </row>
     <row r="54" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="T54" s="12" t="s">
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="T54" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="U54" s="12"/>
-      <c r="V54" s="12"/>
-      <c r="W54" s="12"/>
-      <c r="X54" s="12"/>
-      <c r="Y54" s="12"/>
-      <c r="AB54" s="12" t="s">
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="18"/>
+      <c r="Y54" s="18"/>
+      <c r="AB54" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="AC54" s="12"/>
-      <c r="AD54" s="12"/>
-      <c r="AE54" s="12"/>
-      <c r="AF54" s="12"/>
-      <c r="AG54" s="12"/>
+      <c r="AC54" s="18"/>
+      <c r="AD54" s="18"/>
+      <c r="AE54" s="18"/>
+      <c r="AF54" s="18"/>
+      <c r="AG54" s="18"/>
     </row>
     <row r="55" spans="1:33" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
@@ -2755,41 +2758,41 @@
       </c>
     </row>
     <row r="58" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
-      <c r="G58" s="12" t="s">
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="G58" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="M58" s="12" t="s">
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="M58" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
-      <c r="T58" s="12" t="s">
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
+      <c r="Q58" s="18"/>
+      <c r="T58" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="U58" s="12"/>
-      <c r="V58" s="12"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="12"/>
-      <c r="AB58" s="12" t="s">
+      <c r="U58" s="18"/>
+      <c r="V58" s="18"/>
+      <c r="W58" s="18"/>
+      <c r="X58" s="18"/>
+      <c r="AB58" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="AC58" s="12"/>
-      <c r="AD58" s="12"/>
-      <c r="AE58" s="12"/>
-      <c r="AF58" s="12"/>
+      <c r="AC58" s="18"/>
+      <c r="AD58" s="18"/>
+      <c r="AE58" s="18"/>
+      <c r="AF58" s="18"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D59">
@@ -3960,11 +3963,11 @@
       <c r="F72" s="11">
         <v>1</v>
       </c>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
-      <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-      <c r="K72" s="1"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
       <c r="M72" s="4" t="s">
         <v>180</v>
       </c>
@@ -4042,11 +4045,11 @@
       <c r="F73" s="11">
         <v>3</v>
       </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
       <c r="M73" s="3" t="s">
         <v>165</v>
       </c>
@@ -4124,11 +4127,11 @@
       <c r="F74" s="11">
         <v>3</v>
       </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
       <c r="M74" s="3" t="s">
         <v>166</v>
       </c>
@@ -4206,11 +4209,11 @@
       <c r="F75" s="11">
         <v>3</v>
       </c>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-      <c r="K75" s="1"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -4275,11 +4278,11 @@
       <c r="F76" s="11">
         <v>3</v>
       </c>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
@@ -4344,11 +4347,11 @@
       <c r="F77" s="11">
         <v>3</v>
       </c>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
       <c r="O77" s="1"/>
@@ -4413,11 +4416,11 @@
       <c r="F78" s="11">
         <v>4</v>
       </c>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -4482,11 +4485,11 @@
       <c r="F79" s="11">
         <v>4</v>
       </c>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -4551,11 +4554,11 @@
       <c r="F80" s="11">
         <v>3</v>
       </c>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -4600,6 +4603,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="T58:X58"/>
+    <mergeCell ref="T54:Y54"/>
+    <mergeCell ref="AB54:AG54"/>
+    <mergeCell ref="AB58:AF58"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A9"/>
@@ -4610,14 +4618,9 @@
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="I10:I13"/>
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="T58:X58"/>
-    <mergeCell ref="T54:Y54"/>
-    <mergeCell ref="AB54:AG54"/>
-    <mergeCell ref="AB58:AF58"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E23 E2:E21">
       <formula1>"R,SR,SSR"</formula1>
     </dataValidation>

--- a/Excel/镇魂街/operAct.运营活动.xlsx
+++ b/Excel/镇魂街/operAct.运营活动.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="642"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="642" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="在线礼包" sheetId="33" r:id="rId7"/>
     <sheet name="七日礼包" sheetId="34" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="343">
   <si>
     <t>sheet名</t>
   </si>
@@ -59,10 +59,6 @@
   </si>
   <si>
     <t>唐流雨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>关羽</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -183,10 +179,6 @@
   </si>
   <si>
     <t>卡牌通灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -641,117 +633,82 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>R10资</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR12资</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR13资</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR15资</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR16资</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSR14资</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐流雨</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>李轩辕</t>
+  </si>
+  <si>
+    <t>高顺</t>
+  </si>
+  <si>
+    <t>许褚</t>
+  </si>
+  <si>
+    <t>石灵明</t>
+  </si>
+  <si>
+    <t>典韦</t>
+  </si>
+  <si>
+    <t>飞廉</t>
+  </si>
+  <si>
+    <t>烈风螳螂</t>
+  </si>
+  <si>
+    <t>噬日</t>
+  </si>
+  <si>
+    <t>塞伯罗斯</t>
+  </si>
+  <si>
+    <t>天使缇娜</t>
+  </si>
+  <si>
+    <t>徐晃</t>
+  </si>
+  <si>
     <t>夏侯惇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>张飞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>西方龙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
   </si>
   <si>
     <t>项羽</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李轩辕#噬日#天使缇娜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>许褚#高顺#李轩辕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>石灵明#典韦#飞廉</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>夏侯惇#张飞#西方龙</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>徐晃#烈风螳螂#飞廉</t>
-  </si>
-  <si>
-    <t>R10资</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SR12资</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SR13资</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSR15资</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSR16资</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SSR14资</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>唐流雨</t>
-  </si>
-  <si>
-    <t>于禁</t>
-  </si>
-  <si>
-    <t>李轩辕</t>
-  </si>
-  <si>
-    <t>高顺</t>
-  </si>
-  <si>
-    <t>许褚</t>
-  </si>
-  <si>
-    <t>石灵明</t>
-  </si>
-  <si>
-    <t>典韦</t>
-  </si>
-  <si>
-    <t>飞廉</t>
-  </si>
-  <si>
-    <t>烈风螳螂</t>
-  </si>
-  <si>
-    <t>噬日</t>
-  </si>
-  <si>
-    <t>塞伯罗斯</t>
-  </si>
-  <si>
-    <t>天使缇娜</t>
-  </si>
-  <si>
-    <t>徐晃</t>
-  </si>
-  <si>
-    <t>夏侯惇</t>
-  </si>
-  <si>
-    <t>张飞</t>
-  </si>
-  <si>
-    <t>西方龙</t>
-  </si>
-  <si>
-    <t>关羽</t>
-  </si>
-  <si>
-    <t>项羽</t>
   </si>
   <si>
     <t>张颌</t>
@@ -846,9 +803,6 @@
   <si>
     <t>AwardShow.Pic1</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AwardShow.Pic2</t>
   </si>
   <si>
     <t>string:e&lt;</t>
@@ -867,10 +821,6 @@
 美术字图片</t>
   </si>
   <si>
-    <t>通关条件
-美术字图片</t>
-  </si>
-  <si>
     <t>Id</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -887,32 +837,13 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ui_dtex_Quality_049</t>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_054</t>
-  </si>
-  <si>
     <t>普通1章第9关</t>
   </si>
   <si>
-    <t>普通2章第9关</t>
-  </si>
-  <si>
-    <t>普通3章第9关</t>
-  </si>
-  <si>
     <t>普通4章第9关</t>
   </si>
   <si>
     <t>普通5章第15关</t>
-  </si>
-  <si>
-    <t>普通6章第15关</t>
-  </si>
-  <si>
-    <t>普通7章第15关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Scene</t>
@@ -985,35 +916,12 @@
     <t>Id</t>
   </si>
   <si>
-    <t>中级神器2配件4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>钻石</t>
   </si>
   <si>
     <t>金币</t>
   </si>
   <si>
-    <t>中级神器2配件3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级神器1配件4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级神器1配件3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级神器1配件2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级神器1配件1</t>
-  </si>
-  <si>
     <t>奖励数量3</t>
   </si>
   <si>
@@ -1066,10 +974,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>寄灵人抽卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>时间</t>
   </si>
   <si>
@@ -1080,10 +984,6 @@
   </si>
   <si>
     <t>7日登陆</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>低级专属强化石</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1221,11 +1121,405 @@
     <t>int:&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>HaiBao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>item_id:e&lt;&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>常服曹焱兵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李轩辕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Post_013</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Post_019</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Post_018</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽25_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽26_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>插槽27_1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色基础材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李轩辕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李轩辕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李轩辕#烈风螳螂#许褚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>典韦</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西方龙</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项羽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈风螳螂#飞廉#李轩辕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚#高顺#石灵明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西方龙#张郃#张飞</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通3章第12关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>普通2章第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int:&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8日登陆</t>
+  </si>
+  <si>
+    <t>神器惊喜宝箱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60级守护灵橙色套1-武器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60级寄灵人橙色套1-武器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>低级专属强化石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神器低级材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[1].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[1].val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[3].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[3].val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20级寄灵人橙色套1-项链</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵经验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[4].id</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Award[4].val</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>40级寄灵人橙色套</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-项链</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>60级寄灵人橙色套</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-项链</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>海报（卡牌海报）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_1304026</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>icon_130402</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_1304025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_1303005</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_1301001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Post_015</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Des</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;【即时效果】&lt;/color&gt;立即获得2个红水晶
+&lt;color=#df4c4c&gt;【攻击效果】&lt;/color&gt;攻击敌方单体造成攻击伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;【即时效果】&lt;/color&gt;立即获得2个黄水晶
+&lt;color=#df4c4c&gt;【攻击效果】&lt;/color&gt;攻击敌方单体造成攻击伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;【即时效果】&lt;/color&gt;立即获得2个蓝水晶
+&lt;color=#df4c4c&gt;【攻击效果】&lt;/color&gt;攻击敌方单体造成攻击伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得后，可使阵容的三个位置&lt;color=#df4c4c&gt;编制满员&lt;/color&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;【魔】奥义&lt;/color&gt;奇数回合释放，攻击敌方单体并回复蓝水晶
+&lt;color=#df4c4c&gt;【仙】奥义&lt;/color&gt;偶数回合释放，恢复我方全体单位生命，并使敌方全体进入&lt;color=#df4c4c&gt;“虹吸”&lt;/color&gt;状态
+&lt;color=#df4c4c&gt;【虹吸】&lt;/color&gt;攻击带有虹吸状态的目标，可以恢复生命</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注简述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>·曹焱兵·</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>·李轩辕·</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardQuality</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_032</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_033</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_034</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_047</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Post_014</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1475,7 +1769,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1529,8 +1823,63 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" xfId="14" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1546,9 +1895,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1613,7 +1959,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1661,14 +2007,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5131"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B140000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1676,17 +2019,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1952,7 +2284,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1962,8 +2294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2005,20 +2337,18 @@
     </row>
     <row r="2" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="G2" s="3" t="b">
         <v>1</v>
@@ -2027,14 +2357,14 @@
     </row>
     <row r="3" spans="1:8" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -2045,20 +2375,20 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>202</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>221</v>
       </c>
       <c r="G4" s="14" t="b">
         <v>1</v>
@@ -2067,14 +2397,14 @@
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="13" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2085,96 +2415,104 @@
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="G6" s="15"/>
+        <v>249</v>
+      </c>
+      <c r="G6" s="26" t="b">
+        <v>1</v>
+      </c>
       <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="G7" s="15"/>
+        <v>251</v>
+      </c>
+      <c r="G7" s="26" t="b">
+        <v>1</v>
+      </c>
       <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="G8" s="15"/>
+        <v>253</v>
+      </c>
+      <c r="G8" s="26" t="b">
+        <v>1</v>
+      </c>
       <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="G9" s="15"/>
+        <v>254</v>
+      </c>
+      <c r="G9" s="26" t="b">
+        <v>1</v>
+      </c>
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="G10" s="15" t="b">
         <v>1</v>
@@ -2183,18 +2521,18 @@
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="G11" s="15" t="b">
         <v>1</v>
@@ -2203,18 +2541,18 @@
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="G12" s="15" t="b">
         <v>1</v>
@@ -2230,36 +2568,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="25.875" customWidth="1"/>
-    <col min="5" max="5" width="24.5" customWidth="1"/>
-    <col min="6" max="6" width="27.125" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="27.625" customWidth="1"/>
-    <col min="9" max="9" width="26.25" customWidth="1"/>
-    <col min="10" max="10" width="30.25" customWidth="1"/>
-    <col min="11" max="11" width="28.375" customWidth="1"/>
-    <col min="12" max="12" width="27.875" customWidth="1"/>
-    <col min="13" max="13" width="26.125" customWidth="1"/>
-    <col min="14" max="14" width="27.25" customWidth="1"/>
-    <col min="15" max="16" width="12.625" customWidth="1"/>
-    <col min="17" max="17" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="9" style="17"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="25.875" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="7" width="27.125" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="27.625" customWidth="1"/>
+    <col min="10" max="10" width="26.25" customWidth="1"/>
+    <col min="11" max="11" width="30.25" customWidth="1"/>
+    <col min="12" max="12" width="28.375" customWidth="1"/>
+    <col min="13" max="13" width="27.875" customWidth="1"/>
+    <col min="14" max="14" width="26.125" customWidth="1"/>
+    <col min="15" max="15" width="27.25" customWidth="1"/>
+    <col min="16" max="17" width="12.625" customWidth="1"/>
+    <col min="18" max="18" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>39</v>
+        <v>288</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>38</v>
@@ -2268,10 +2607,10 @@
         <v>37</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>35</v>
@@ -2303,13 +2642,16 @@
       <c r="P1" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>289</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -2318,48 +2660,51 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
         <v>48</v>
       </c>
       <c r="P2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -2392,7 +2737,7 @@
         <v>10</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>12</v>
@@ -2403,208 +2748,231 @@
       <c r="P3" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="Q3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="30">
+        <v>101</v>
+      </c>
+      <c r="B4" s="34">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="C4" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" s="30">
+        <v>1</v>
+      </c>
+      <c r="G4" s="30">
+        <v>80</v>
+      </c>
+      <c r="H4" s="30">
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="I4" s="30">
+        <v>2</v>
+      </c>
+      <c r="J4" s="30">
+        <v>1</v>
+      </c>
+      <c r="K4" s="30">
+        <v>80</v>
+      </c>
+      <c r="L4" s="30">
+        <v>2</v>
+      </c>
+      <c r="M4" s="30">
+        <v>2</v>
+      </c>
+      <c r="N4" s="30">
+        <v>1</v>
+      </c>
+      <c r="O4" s="30">
+        <v>80</v>
+      </c>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>102</v>
+      </c>
+      <c r="B5" s="34">
+        <v>2</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>60</v>
+      </c>
+      <c r="H5" s="32">
+        <v>2</v>
+      </c>
+      <c r="I5" s="32">
+        <v>3</v>
+      </c>
+      <c r="J5" s="32">
+        <v>1</v>
+      </c>
+      <c r="K5" s="32">
+        <v>80</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="32">
+        <v>1</v>
+      </c>
+      <c r="O5" s="32">
+        <v>100</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="30">
+        <v>103</v>
+      </c>
+      <c r="B6" s="34">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>60</v>
+      </c>
+      <c r="H6" s="3">
+        <v>2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>3</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>80</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="3">
+        <v>100</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="30">
+        <v>104</v>
+      </c>
+      <c r="B7" s="34">
         <v>4</v>
       </c>
-      <c r="G4" s="3">
+      <c r="C7" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="4">
-        <v>40</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="G7" s="3">
+        <v>80</v>
+      </c>
+      <c r="H7" s="3">
         <v>2</v>
       </c>
-      <c r="J4" s="3">
-        <v>5</v>
-      </c>
-      <c r="K4" s="3">
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="3">
         <v>1</v>
       </c>
-      <c r="L4" s="4">
-        <v>40</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="K7" s="3">
+        <v>100</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3">
         <v>1</v>
       </c>
-      <c r="N4" s="3">
-        <v>50</v>
-      </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>50</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3">
-        <v>50</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3">
-        <v>50</v>
-      </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>50</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3">
-        <v>50</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3">
-        <v>2</v>
-      </c>
-      <c r="N6" s="3">
-        <v>3</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>50</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="3">
-        <v>40</v>
-      </c>
-      <c r="K7" s="3">
-        <v>2</v>
-      </c>
-      <c r="L7" s="3">
-        <v>3</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1</v>
-      </c>
-      <c r="N7" s="3">
-        <v>50</v>
-      </c>
-      <c r="O7" s="3"/>
+      <c r="O7" s="3">
+        <v>120</v>
+      </c>
       <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>60</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3">
-        <v>1</v>
-      </c>
-      <c r="J8" s="3">
-        <v>60</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3">
-        <v>1</v>
-      </c>
-      <c r="N8" s="3">
-        <v>60</v>
-      </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="30"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+    </row>
+    <row r="9" spans="1:17" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2614,279 +2982,337 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.25" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="17" customWidth="1"/>
+    <col min="9" max="9" width="26.25" style="17" customWidth="1"/>
+    <col min="10" max="10" width="17.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="17" customWidth="1"/>
+    <col min="12" max="12" width="73.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="D1" s="5" t="s">
+    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="C2" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="M2" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>266</v>
+      </c>
+      <c r="H3" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="L3" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="24">
+        <v>101</v>
+      </c>
+      <c r="B4" s="24">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24">
+        <v>102</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="E4" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="33" x14ac:dyDescent="0.2">
+      <c r="A5" s="24">
+        <v>102</v>
+      </c>
+      <c r="B5" s="24">
+        <v>1</v>
+      </c>
+      <c r="C5" s="24">
+        <v>103</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="F5" s="24">
+        <v>1</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="66" x14ac:dyDescent="0.2">
+      <c r="A6" s="24">
+        <v>103</v>
+      </c>
+      <c r="B6" s="24">
+        <v>1</v>
+      </c>
+      <c r="C6" s="24">
+        <v>104</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="F6" s="24">
+        <v>1</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="33" x14ac:dyDescent="0.2">
+      <c r="A7" s="24">
+        <v>104</v>
+      </c>
+      <c r="B7" s="24">
+        <v>1</v>
+      </c>
+      <c r="C7" s="24">
+        <v>105</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="E7" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7" s="24">
+        <v>1</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="33" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
+        <v>105</v>
+      </c>
+      <c r="B8" s="24">
+        <v>1</v>
+      </c>
+      <c r="C8" s="24">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" t="s">
-        <v>197</v>
-      </c>
-      <c r="H2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
-        <v>101</v>
-      </c>
-      <c r="B4" s="14">
+      <c r="E8" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" s="24">
         <v>1</v>
       </c>
-      <c r="C4" s="21">
-        <v>102</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="E4" s="14">
-        <v>1101001</v>
-      </c>
-      <c r="F4" s="14">
-        <v>1</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
-        <v>102</v>
-      </c>
-      <c r="B5" s="14">
-        <v>1</v>
-      </c>
-      <c r="C5" s="21">
-        <v>103</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E5" s="14">
-        <v>1304025</v>
-      </c>
-      <c r="F5" s="14">
-        <v>1</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
-        <v>103</v>
-      </c>
-      <c r="B6" s="14">
-        <v>1</v>
-      </c>
-      <c r="C6" s="21">
-        <v>104</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" s="14">
-        <v>1101003</v>
-      </c>
-      <c r="F6" s="14">
-        <v>1</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
-        <v>104</v>
-      </c>
-      <c r="B7" s="14">
-        <v>1</v>
-      </c>
-      <c r="C7" s="21">
-        <v>105</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="E7" s="14">
-        <v>1304026</v>
-      </c>
-      <c r="F7" s="14">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
-        <v>105</v>
-      </c>
-      <c r="B8" s="14">
-        <v>1</v>
-      </c>
-      <c r="C8" s="21">
-        <v>106</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1101007</v>
-      </c>
-      <c r="F8" s="14">
-        <v>1</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
-        <v>106</v>
-      </c>
-      <c r="B9" s="14">
-        <v>1</v>
-      </c>
-      <c r="C9" s="21">
-        <v>107</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1304027</v>
-      </c>
-      <c r="F9" s="14">
-        <v>1</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="33" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
-        <v>107</v>
-      </c>
-      <c r="B10" s="14">
-        <v>1</v>
-      </c>
-      <c r="C10" s="14">
-        <v>-1</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" s="14">
-        <v>1401010</v>
-      </c>
-      <c r="F10" s="14">
-        <v>100</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>207</v>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2900,8 +3326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG80"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2921,563 +3347,563 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>115</v>
+      <c r="A2" s="41" t="s">
+        <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
-        <v>119</v>
+      <c r="A5" s="43" t="s">
+        <v>117</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="B7" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>122</v>
-      </c>
       <c r="C7" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
-        <v>128</v>
+      <c r="A10" s="41" t="s">
+        <v>126</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="24" t="s">
-        <v>132</v>
+      <c r="I10" s="43" t="s">
+        <v>130</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="30"/>
+      <c r="I11" s="48"/>
       <c r="J11" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="30"/>
+      <c r="I12" s="48"/>
       <c r="J12" s="3"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="23"/>
+      <c r="A13" s="42"/>
       <c r="B13" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="31"/>
+      <c r="I13" s="49"/>
       <c r="J13" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="9" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="9" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="24" t="s">
-        <v>129</v>
+      <c r="A16" s="43" t="s">
+        <v>127</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="4" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="30"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="4" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="31"/>
+      <c r="A18" s="49"/>
       <c r="B18" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="4" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
-        <v>126</v>
+      <c r="A19" s="46" t="s">
+        <v>124</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="4" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -3489,85 +3915,85 @@
       <c r="G23" s="1"/>
     </row>
     <row r="54" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="T54" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="U54" s="27"/>
-      <c r="V54" s="27"/>
-      <c r="W54" s="27"/>
-      <c r="X54" s="27"/>
-      <c r="Y54" s="27"/>
-      <c r="AB54" s="27" t="s">
-        <v>191</v>
-      </c>
-      <c r="AC54" s="27"/>
-      <c r="AD54" s="27"/>
-      <c r="AE54" s="27"/>
-      <c r="AF54" s="27"/>
-      <c r="AG54" s="27"/>
+      <c r="A54" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" s="40"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="T54" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
+      <c r="AB54" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC54" s="40"/>
+      <c r="AD54" s="40"/>
+      <c r="AE54" s="40"/>
+      <c r="AF54" s="40"/>
+      <c r="AG54" s="40"/>
     </row>
     <row r="55" spans="1:33" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="U55" s="6" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="V55" s="6" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="W55" s="6" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="X55" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="Y55" s="6" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="AE55" s="6" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="AF55" s="6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="AG55" s="6" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
@@ -3627,41 +4053,41 @@
       </c>
     </row>
     <row r="58" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="G58" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
-      <c r="K58" s="27"/>
-      <c r="M58" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="T58" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="U58" s="27"/>
-      <c r="V58" s="27"/>
-      <c r="W58" s="27"/>
-      <c r="X58" s="27"/>
-      <c r="AB58" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC58" s="27"/>
-      <c r="AD58" s="27"/>
-      <c r="AE58" s="27"/>
-      <c r="AF58" s="27"/>
+      <c r="A58" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="40"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="G58" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="J58" s="40"/>
+      <c r="K58" s="40"/>
+      <c r="M58" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+      <c r="T58" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="U58" s="40"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="40"/>
+      <c r="X58" s="40"/>
+      <c r="AB58" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC58" s="40"/>
+      <c r="AD58" s="40"/>
+      <c r="AE58" s="40"/>
+      <c r="AF58" s="40"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D59">
@@ -3687,87 +4113,87 @@
     </row>
     <row r="60" spans="1:33" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="J60" s="6" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="Q60" s="6" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="T60" s="6" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="U60" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="V60" s="6" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="W60" s="6" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="X60" s="6" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="AB60" s="6" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="AC60" s="6" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="AD60" s="6" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="AE60" s="6" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="AF60" s="6" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B61" s="3">
         <v>1</v>
@@ -3788,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="H61" s="3">
         <v>1</v>
@@ -3806,7 +4232,7 @@
         <v>2570</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="N61" s="3">
         <v>1</v>
@@ -3824,7 +4250,7 @@
         <v>2604</v>
       </c>
       <c r="T61" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="U61" s="3">
         <v>1</v>
@@ -3842,7 +4268,7 @@
         <v>2474</v>
       </c>
       <c r="AB61" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="AC61" s="3">
         <v>1</v>
@@ -3862,7 +4288,7 @@
     </row>
     <row r="62" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="B62" s="3">
         <v>1</v>
@@ -3883,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="H62" s="3">
         <v>1</v>
@@ -3901,7 +4327,7 @@
         <v>2573</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="N62" s="3">
         <v>1</v>
@@ -3919,7 +4345,7 @@
         <v>2460</v>
       </c>
       <c r="T62" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="U62" s="3">
         <v>1</v>
@@ -3937,7 +4363,7 @@
         <v>2472</v>
       </c>
       <c r="AB62" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="AC62" s="3">
         <v>1</v>
@@ -3957,7 +4383,7 @@
     </row>
     <row r="63" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B63" s="3">
         <v>2</v>
@@ -3978,7 +4404,7 @@
         <v>1</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="H63" s="3">
         <v>2</v>
@@ -3996,7 +4422,7 @@
         <v>515</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="N63" s="3">
         <v>2</v>
@@ -4014,7 +4440,7 @@
         <v>492</v>
       </c>
       <c r="T63" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="U63" s="3">
         <v>2</v>
@@ -4032,7 +4458,7 @@
         <v>494</v>
       </c>
       <c r="AB63" s="3" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="AC63" s="3">
         <v>2</v>
@@ -4052,7 +4478,7 @@
     </row>
     <row r="64" spans="1:33" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B64" s="3">
         <v>3</v>
@@ -4073,7 +4499,7 @@
         <v>2</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="H64" s="3">
         <v>3</v>
@@ -4091,7 +4517,7 @@
         <v>172</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="N64" s="3">
         <v>3</v>
@@ -4109,7 +4535,7 @@
         <v>164</v>
       </c>
       <c r="T64" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="U64" s="3">
         <v>3</v>
@@ -4127,7 +4553,7 @@
         <v>165</v>
       </c>
       <c r="AB64" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="AC64" s="3">
         <v>3</v>
@@ -4147,7 +4573,7 @@
     </row>
     <row r="65" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="B65" s="3">
         <v>3</v>
@@ -4168,7 +4594,7 @@
         <v>2</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="H65" s="3">
         <v>3</v>
@@ -4186,7 +4612,7 @@
         <v>172</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="N65" s="3">
         <v>3</v>
@@ -4204,7 +4630,7 @@
         <v>164</v>
       </c>
       <c r="T65" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="U65" s="3">
         <v>3</v>
@@ -4222,7 +4648,7 @@
         <v>165</v>
       </c>
       <c r="AB65" s="3" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="AC65" s="3">
         <v>3</v>
@@ -4242,7 +4668,7 @@
     </row>
     <row r="66" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B66" s="3">
         <v>3</v>
@@ -4263,7 +4689,7 @@
         <v>2</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="H66" s="3">
         <v>4</v>
@@ -4281,7 +4707,7 @@
         <v>51</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="N66" s="3">
         <v>3</v>
@@ -4299,7 +4725,7 @@
         <v>164</v>
       </c>
       <c r="T66" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="U66" s="3">
         <v>3</v>
@@ -4317,7 +4743,7 @@
         <v>165</v>
       </c>
       <c r="AB66" s="3" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="AC66" s="3">
         <v>3</v>
@@ -4337,7 +4763,7 @@
     </row>
     <row r="67" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="B67" s="3">
         <v>4</v>
@@ -4358,7 +4784,7 @@
         <v>3</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="H67" s="3">
         <v>3</v>
@@ -4376,7 +4802,7 @@
         <v>172</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="N67" s="3">
         <v>4</v>
@@ -4394,7 +4820,7 @@
         <v>82</v>
       </c>
       <c r="T67" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="U67" s="3">
         <v>4</v>
@@ -4412,7 +4838,7 @@
         <v>82</v>
       </c>
       <c r="AB67" s="3" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="AC67" s="3">
         <v>4</v>
@@ -4432,7 +4858,7 @@
     </row>
     <row r="68" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B68" s="3">
         <v>3</v>
@@ -4453,7 +4879,7 @@
         <v>2</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="H68" s="3">
         <v>2</v>
@@ -4471,7 +4897,7 @@
         <v>515</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="N68" s="3">
         <v>3</v>
@@ -4489,7 +4915,7 @@
         <v>164</v>
       </c>
       <c r="T68" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="U68" s="3">
         <v>3</v>
@@ -4507,7 +4933,7 @@
         <v>165</v>
       </c>
       <c r="AB68" s="3" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="AC68" s="3">
         <v>3</v>
@@ -4527,7 +4953,7 @@
     </row>
     <row r="69" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="B69" s="3">
         <v>2</v>
@@ -4548,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="H69" s="3">
         <v>3</v>
@@ -4566,7 +4992,7 @@
         <v>172</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="N69" s="3">
         <v>2</v>
@@ -4584,7 +5010,7 @@
         <v>492</v>
       </c>
       <c r="T69" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="U69" s="3">
         <v>2</v>
@@ -4602,7 +5028,7 @@
         <v>494</v>
       </c>
       <c r="AB69" s="3" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="AC69" s="3">
         <v>2</v>
@@ -4622,7 +5048,7 @@
     </row>
     <row r="70" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B70" s="3">
         <v>3</v>
@@ -4643,7 +5069,7 @@
         <v>2</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="H70" s="3">
         <v>1</v>
@@ -4661,7 +5087,7 @@
         <v>2573</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="N70" s="3">
         <v>3</v>
@@ -4679,7 +5105,7 @@
         <v>164</v>
       </c>
       <c r="T70" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="U70" s="3">
         <v>3</v>
@@ -4697,7 +5123,7 @@
         <v>165</v>
       </c>
       <c r="AB70" s="3" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="AC70" s="3">
         <v>3</v>
@@ -4717,7 +5143,7 @@
     </row>
     <row r="71" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B71" s="3">
         <v>1</v>
@@ -4738,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="H71" s="3">
         <v>2</v>
@@ -4756,7 +5182,7 @@
         <v>515</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="N71" s="3">
         <v>1</v>
@@ -4774,7 +5200,7 @@
         <v>2460</v>
       </c>
       <c r="T71" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="U71" s="3">
         <v>1</v>
@@ -4792,7 +5218,7 @@
         <v>2472</v>
       </c>
       <c r="AB71" s="3" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="AC71" s="3">
         <v>1</v>
@@ -4812,7 +5238,7 @@
     </row>
     <row r="72" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B72" s="3">
         <v>2</v>
@@ -4838,7 +5264,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="12"/>
       <c r="M72" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="N72" s="3">
         <v>2</v>
@@ -4856,7 +5282,7 @@
         <v>492</v>
       </c>
       <c r="T72" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="U72" s="3">
         <v>2</v>
@@ -4874,7 +5300,7 @@
         <v>494</v>
       </c>
       <c r="AB72" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="AC72" s="3">
         <v>2</v>
@@ -4894,7 +5320,7 @@
     </row>
     <row r="73" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B73" s="3">
         <v>4</v>
@@ -4920,7 +5346,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="12"/>
       <c r="M73" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="N73" s="3">
         <v>4</v>
@@ -4938,7 +5364,7 @@
         <v>49</v>
       </c>
       <c r="T73" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="U73" s="3">
         <v>4</v>
@@ -4956,7 +5382,7 @@
         <v>49</v>
       </c>
       <c r="AB73" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="AC73" s="3">
         <v>4</v>
@@ -4976,7 +5402,7 @@
     </row>
     <row r="74" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B74" s="3">
         <v>4</v>
@@ -5002,7 +5428,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="12"/>
       <c r="M74" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="N74" s="3">
         <v>4</v>
@@ -5020,7 +5446,7 @@
         <v>49</v>
       </c>
       <c r="T74" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="U74" s="3">
         <v>4</v>
@@ -5038,7 +5464,7 @@
         <v>49</v>
       </c>
       <c r="AB74" s="3" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="AC74" s="3">
         <v>4</v>
@@ -5058,7 +5484,7 @@
     </row>
     <row r="75" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B75" s="3">
         <v>5</v>
@@ -5089,7 +5515,7 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="T75" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="U75" s="3">
         <v>5</v>
@@ -5107,7 +5533,7 @@
         <v>12</v>
       </c>
       <c r="AB75" s="3" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="AC75" s="3">
         <v>5</v>
@@ -5127,7 +5553,7 @@
     </row>
     <row r="76" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="B76" s="3">
         <v>5</v>
@@ -5158,7 +5584,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="T76" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="U76" s="3">
         <v>5</v>
@@ -5176,7 +5602,7 @@
         <v>12</v>
       </c>
       <c r="AB76" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="AC76" s="3">
         <v>5</v>
@@ -5196,7 +5622,7 @@
     </row>
     <row r="77" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="B77" s="3">
         <v>4</v>
@@ -5227,7 +5653,7 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="T77" s="3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="U77" s="3">
         <v>4</v>
@@ -5245,7 +5671,7 @@
         <v>49</v>
       </c>
       <c r="AB77" s="3" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="AC77" s="3">
         <v>4</v>
@@ -5265,7 +5691,7 @@
     </row>
     <row r="78" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="B78" s="3">
         <v>6</v>
@@ -5296,7 +5722,7 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
       <c r="T78" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="U78" s="3">
         <v>6</v>
@@ -5314,7 +5740,7 @@
         <v>5</v>
       </c>
       <c r="AB78" s="3" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="AC78" s="3">
         <v>6</v>
@@ -5334,7 +5760,7 @@
     </row>
     <row r="79" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B79" s="3">
         <v>6</v>
@@ -5365,7 +5791,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
       <c r="T79" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="U79" s="3">
         <v>6</v>
@@ -5383,7 +5809,7 @@
         <v>5</v>
       </c>
       <c r="AB79" s="3" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="AC79" s="3">
         <v>6</v>
@@ -5403,7 +5829,7 @@
     </row>
     <row r="80" spans="1:32" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B80" s="3">
         <v>5</v>
@@ -5434,7 +5860,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
       <c r="T80" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="U80" s="3">
         <v>5</v>
@@ -5452,7 +5878,7 @@
         <v>12</v>
       </c>
       <c r="AB80" s="3" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="AC80" s="3">
         <v>5</v>
@@ -5472,11 +5898,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="M58:Q58"/>
-    <mergeCell ref="T58:X58"/>
-    <mergeCell ref="T54:Y54"/>
-    <mergeCell ref="AB54:AG54"/>
-    <mergeCell ref="AB58:AF58"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A9"/>
@@ -5487,6 +5908,11 @@
     <mergeCell ref="A54:F54"/>
     <mergeCell ref="A58:E58"/>
     <mergeCell ref="I10:I13"/>
+    <mergeCell ref="M58:Q58"/>
+    <mergeCell ref="T58:X58"/>
+    <mergeCell ref="T54:Y54"/>
+    <mergeCell ref="AB54:AG54"/>
+    <mergeCell ref="AB58:AF58"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
@@ -5551,26 +5977,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -21570,7 +21996,7 @@
         <v>2000</v>
       </c>
       <c r="B2003" s="17" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -21582,275 +22008,432 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="18"/>
-    <col min="3" max="6" width="13.625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="18" customWidth="1"/>
+    <col min="4" max="6" width="13.625" style="18" customWidth="1"/>
     <col min="7" max="7" width="19" style="18" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="18" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="18"/>
+    <col min="8" max="9" width="13.625" style="18" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="18" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="F1" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="36">
+        <v>101</v>
+      </c>
+      <c r="B4" s="36">
+        <v>10</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>304</v>
+      </c>
+      <c r="D4" s="36">
+        <v>1</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="F4" s="36">
+        <v>100</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>303</v>
+      </c>
+      <c r="H4" s="36">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="J4" s="36">
+        <v>140000</v>
+      </c>
+      <c r="M4" s="18">
+        <f t="shared" ref="M4:M11" si="0">INT($P$4*N4)</f>
+        <v>140000</v>
+      </c>
+      <c r="N4" s="37">
+        <v>0.02</v>
+      </c>
+      <c r="P4" s="18">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="36">
+        <v>102</v>
+      </c>
+      <c r="B5" s="36">
+        <v>20</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="D5" s="36">
+        <v>2</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="36">
+        <v>100</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="36">
+        <v>2000</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="J5" s="36">
+        <v>280000</v>
+      </c>
+      <c r="M5" s="18">
+        <f t="shared" si="0"/>
+        <v>280000</v>
+      </c>
+      <c r="N5" s="37">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="36">
+        <v>103</v>
+      </c>
+      <c r="B6" s="36">
+        <v>30</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="36">
+        <v>1</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="F6" s="36">
+        <v>150</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="36">
+        <v>3000</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="J6" s="36">
+        <v>490000</v>
+      </c>
+      <c r="M6" s="18">
+        <f t="shared" si="0"/>
+        <v>490000</v>
+      </c>
+      <c r="N6" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="36">
+        <v>104</v>
+      </c>
+      <c r="B7" s="36">
+        <v>40</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" s="36">
+        <v>5</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="36">
+        <v>200</v>
+      </c>
+      <c r="G7" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="36">
+        <v>4000</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="J7" s="36">
+        <v>700000</v>
+      </c>
+      <c r="M7" s="18">
+        <f t="shared" si="0"/>
+        <v>700000</v>
+      </c>
+      <c r="N7" s="37">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="36">
+        <v>105</v>
+      </c>
+      <c r="B8" s="36">
+        <v>50</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="D8" s="36">
+        <v>1</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="F8" s="36">
         <v>250</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
-        <v>101</v>
-      </c>
-      <c r="B4" s="17">
+      <c r="G8" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="36">
+        <v>5000</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="J8" s="36">
+        <v>980000</v>
+      </c>
+      <c r="M8" s="18">
+        <f t="shared" si="0"/>
+        <v>980000</v>
+      </c>
+      <c r="N8" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="36">
+        <v>106</v>
+      </c>
+      <c r="B9" s="36">
+        <v>60</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="36">
         <v>5</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" s="17">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F4" s="17">
-        <v>50</v>
-      </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
-        <v>102</v>
-      </c>
-      <c r="B5" s="17">
+      <c r="E9" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="36">
+        <v>300</v>
+      </c>
+      <c r="G9" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="36">
+        <v>6000</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="J9" s="36">
+        <v>1260000</v>
+      </c>
+      <c r="M9" s="18">
+        <f t="shared" si="0"/>
+        <v>1260000</v>
+      </c>
+      <c r="N9" s="37">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="36">
+        <v>107</v>
+      </c>
+      <c r="B10" s="36">
+        <v>70</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="D10" s="36">
+        <v>1</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" s="36">
+        <v>400</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="36">
+        <v>7000</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="J10" s="36">
+        <v>1400000</v>
+      </c>
+      <c r="M10" s="18">
+        <f t="shared" si="0"/>
+        <v>1400000</v>
+      </c>
+      <c r="N10" s="37">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="36">
+        <v>108</v>
+      </c>
+      <c r="B11" s="36">
+        <v>80</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" s="36">
         <v>10</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="17">
-        <v>1000</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F5" s="17">
-        <v>100</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="H5" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>103</v>
-      </c>
-      <c r="B6" s="17">
-        <v>20</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" s="17">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F6" s="17">
-        <v>150</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>237</v>
-      </c>
-      <c r="H6" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
-        <v>104</v>
-      </c>
-      <c r="B7" s="17">
-        <v>30</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D7" s="17">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F7" s="17">
-        <v>200</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="H7" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
-        <v>105</v>
-      </c>
-      <c r="B8" s="17">
-        <v>40</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" s="17">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F8" s="17">
-        <v>250</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>235</v>
-      </c>
-      <c r="H8" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
-        <v>106</v>
-      </c>
-      <c r="B9" s="17">
-        <v>50</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" s="17">
-        <v>1000</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F9" s="17">
-        <v>300</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="H9" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
-        <v>107</v>
-      </c>
-      <c r="B10" s="17">
-        <v>60</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D10" s="17">
-        <v>1000</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F10" s="17">
-        <v>400</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="H10" s="17">
-        <v>5</v>
+      <c r="E11" s="36" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="36">
+        <v>500</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" s="36">
+        <v>8000</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="J11" s="36">
+        <v>1750000</v>
+      </c>
+      <c r="M11" s="18">
+        <f t="shared" si="0"/>
+        <v>1750000</v>
+      </c>
+      <c r="N11" s="37">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -21864,290 +22447,289 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
     <col min="2" max="2" width="12.375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="18" customWidth="1"/>
+    <col min="3" max="3" width="16.25" style="18" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="18" customWidth="1"/>
     <col min="5" max="5" width="13.625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="18" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="18" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="18" customWidth="1"/>
+    <col min="6" max="7" width="13.375" style="18" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="18" customWidth="1"/>
     <col min="9" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="F1" s="5" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="28">
         <v>201</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="28">
         <v>5</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" s="17">
+      <c r="C4" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="28">
+        <v>25</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" s="28">
         <v>1000</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="28">
+        <v>202</v>
+      </c>
+      <c r="B5" s="28">
+        <v>10</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="28">
+        <v>1</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F5" s="28">
+        <v>25</v>
+      </c>
+      <c r="G5" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="39">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="28">
+        <v>203</v>
+      </c>
+      <c r="B6" s="28">
+        <v>15</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="28">
         <v>50</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
-        <v>202</v>
-      </c>
-      <c r="B5" s="17">
-        <v>10</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="E6" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" s="28">
         <v>1000</v>
       </c>
-      <c r="E5" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="28">
+        <v>204</v>
+      </c>
+      <c r="B7" s="28">
+        <v>30</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D7" s="28">
+        <v>1</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="28">
         <v>50</v>
       </c>
-      <c r="G5" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="H5" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>203</v>
-      </c>
-      <c r="B6" s="17">
-        <v>15</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="G7" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="39">
         <v>1000</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F6" s="17">
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="28">
+        <v>205</v>
+      </c>
+      <c r="B8" s="28">
+        <v>45</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="28">
         <v>50</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
-        <v>204</v>
-      </c>
-      <c r="B7" s="17">
-        <v>30</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="E8" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" s="28">
         <v>1000</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="28">
+        <v>206</v>
+      </c>
+      <c r="B9" s="28">
+        <v>60</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="28">
         <v>50</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="H7" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
-        <v>205</v>
-      </c>
-      <c r="B8" s="17">
-        <v>45</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="E9" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F9" s="28">
+        <v>50</v>
+      </c>
+      <c r="G9" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="39">
         <v>1000</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F8" s="17">
-        <v>50</v>
-      </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
-        <v>206</v>
-      </c>
-      <c r="B9" s="17">
-        <v>60</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" s="17">
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="28">
+        <v>207</v>
+      </c>
+      <c r="B10" s="28">
+        <v>90</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="28">
+        <v>75</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="F10" s="28">
         <v>1000</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F9" s="17">
-        <v>50</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="H9" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
-        <v>207</v>
-      </c>
-      <c r="B10" s="17">
-        <v>90</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D10" s="17">
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="28">
+        <v>208</v>
+      </c>
+      <c r="B11" s="28">
+        <v>120</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="28">
+        <v>3</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="28">
+        <v>125</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" s="39">
         <v>1000</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F10" s="17">
-        <v>50</v>
-      </c>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
-        <v>208</v>
-      </c>
-      <c r="B11" s="17">
-        <v>120</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="D11" s="17">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="F11" s="17">
-        <v>50</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="H11" s="17">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -22158,308 +22740,294 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="18"/>
     <col min="3" max="3" width="12.625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
+    <col min="4" max="4" width="21.875" style="18" customWidth="1"/>
     <col min="5" max="5" width="14" style="18" customWidth="1"/>
-    <col min="6" max="8" width="12.625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="23" style="18" customWidth="1"/>
+    <col min="7" max="8" width="12.625" style="18" customWidth="1"/>
     <col min="9" max="9" width="12.875" style="18" customWidth="1"/>
     <col min="10" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>257</v>
+        <v>231</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="35">
+        <v>301</v>
+      </c>
+      <c r="B4" s="35">
+        <v>1</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="35">
+        <v>100</v>
+      </c>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="35">
+        <v>302</v>
+      </c>
+      <c r="B5" s="35">
+        <v>2</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D5" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="35">
+        <v>10</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="35">
+        <v>303</v>
+      </c>
+      <c r="B6" s="35">
+        <v>3</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="17">
-        <v>301</v>
-      </c>
-      <c r="B4" s="17">
+      <c r="D6" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="35">
+        <v>10</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="35">
+        <v>304</v>
+      </c>
+      <c r="B7" s="35">
+        <v>4</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="E7" s="35">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4" s="17">
-        <v>100</v>
-      </c>
-      <c r="F4" s="17" t="s">
+      <c r="F7" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="G7" s="35">
+        <v>1</v>
+      </c>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="35">
+        <v>305</v>
+      </c>
+      <c r="B8" s="35">
+        <v>5</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="35">
+        <v>5</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="G8" s="35">
+        <v>30</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="35">
+        <v>306</v>
+      </c>
+      <c r="B9" s="35">
+        <v>6</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" s="35">
+        <v>5</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="G9" s="35">
+        <v>200</v>
+      </c>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="35">
+        <v>307</v>
+      </c>
+      <c r="B10" s="35">
+        <v>7</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="17">
+      <c r="E10" s="35">
+        <v>5</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="G10" s="35">
         <v>1000</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17">
-        <v>302</v>
-      </c>
-      <c r="B5" s="17">
-        <v>2</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="E5" s="17">
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="35">
+        <v>308</v>
+      </c>
+      <c r="B11" s="35">
+        <v>8</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" s="35">
         <v>10</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="G5" s="17">
-        <v>1000</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="I5" s="17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="17">
-        <v>303</v>
-      </c>
-      <c r="B6" s="17">
-        <v>3</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="E6" s="17">
-        <v>10</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="G6" s="17">
-        <v>1000</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="I6" s="17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
-        <v>304</v>
-      </c>
-      <c r="B7" s="17">
-        <v>4</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="E7" s="17">
-        <v>20</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="G7" s="17">
-        <v>1000</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="I7" s="17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
-        <v>305</v>
-      </c>
-      <c r="B8" s="17">
-        <v>5</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>264</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="E8" s="17">
-        <v>2</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="G8" s="17">
-        <v>1000</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="I8" s="17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
-        <v>306</v>
-      </c>
-      <c r="B9" s="17">
-        <v>6</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="E9" s="17">
-        <v>20</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="G9" s="17">
-        <v>1000</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="I9" s="17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
-        <v>307</v>
-      </c>
-      <c r="B10" s="17">
-        <v>7</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="E10" s="17">
-        <v>10</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>233</v>
-      </c>
-      <c r="G10" s="17">
-        <v>1000</v>
-      </c>
-      <c r="H10" s="17" t="s">
-        <v>232</v>
-      </c>
-      <c r="I10" s="17">
-        <v>50</v>
-      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/镇魂街/operAct.运营活动.xlsx
+++ b/Excel/镇魂街/operAct.运营活动.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="642" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="642" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -16,17 +16,23 @@
     <sheet name="在线礼包" sheetId="33" r:id="rId7"/>
     <sheet name="七日礼包" sheetId="34" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="346">
   <si>
     <t>sheet名</t>
   </si>
@@ -840,9 +846,6 @@
     <t>普通1章第9关</t>
   </si>
   <si>
-    <t>普通4章第9关</t>
-  </si>
-  <si>
     <t>普通5章第15关</t>
   </si>
   <si>
@@ -1050,13 +1053,7 @@
     <t>等级礼包</t>
   </si>
   <si>
-    <t>level_gift.lua</t>
-  </si>
-  <si>
     <t>客户端配置等级礼包的表</t>
-  </si>
-  <si>
-    <t>level_gift.txt</t>
   </si>
   <si>
     <t>服务端配置等级礼包的表</t>
@@ -1307,10 +1304,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>寄灵人抽卡券</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>守护灵抽卡券</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1450,76 +1443,103 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#df4c4c&gt;【魔】奥义&lt;/color&gt;奇数回合释放，攻击敌方单体并回复蓝水晶
-&lt;color=#df4c4c&gt;【仙】奥义&lt;/color&gt;偶数回合释放，恢复我方全体单位生命，并使敌方全体进入&lt;color=#df4c4c&gt;“虹吸”&lt;/color&gt;状态
+    <t>备注简述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>·曹焱兵·</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>·李轩辕·</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型图片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_032</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_033</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_034</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_047</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Post_014</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标品质边框</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_dtex_Quality_085</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CardQuality</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frame</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#df4c4c&gt;【魔】绝技&lt;/color&gt;奇数回合释放，攻击敌方单体并回复蓝水晶
+&lt;color=#df4c4c&gt;【仙】绝技&lt;/color&gt;偶数回合释放，恢复我方全体单位生命，并使敌方全体进入&lt;color=#df4c4c&gt;“虹吸”&lt;/color&gt;状态
 &lt;color=#df4c4c&gt;【虹吸】&lt;/color&gt;攻击带有虹吸状态的目标，可以恢复生命</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注简述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄灵人</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>守护灵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardName</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>·曹焱兵·</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>·李轩辕·</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardQuality</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型图片</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_032</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_033</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_034</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_dtex_Quality_047</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui_dtex_Post_014</t>
+  </si>
+  <si>
+    <t>普通4章第12关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_gift.lua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_gift.txt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵抽卡券</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1769,7 +1789,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1878,6 +1898,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1959,7 +1985,7 @@
         <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2007,11 +2033,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5131"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B140000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2019,6 +2048,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2284,7 +2324,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2295,7 +2335,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2344,7 +2384,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="4" t="s">
@@ -2375,10 +2415,10 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>199</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="20" t="s">
@@ -2388,7 +2428,7 @@
         <v>189</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G4" s="14" t="b">
         <v>1</v>
@@ -2397,14 +2437,14 @@
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2415,20 +2455,20 @@
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>343</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G6" s="26" t="b">
         <v>1</v>
@@ -2437,18 +2477,18 @@
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B7" s="15"/>
-      <c r="C7" s="15" t="s">
-        <v>250</v>
+      <c r="C7" s="40" t="s">
+        <v>344</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G7" s="26" t="b">
         <v>1</v>
@@ -2457,20 +2497,20 @@
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G8" s="26" t="b">
         <v>1</v>
@@ -2479,18 +2519,18 @@
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G9" s="26" t="b">
         <v>1</v>
@@ -2499,20 +2539,20 @@
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G10" s="15" t="b">
         <v>1</v>
@@ -2521,18 +2561,18 @@
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G11" s="15" t="b">
         <v>1</v>
@@ -2541,18 +2581,18 @@
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G12" s="15" t="b">
         <v>1</v>
@@ -2598,7 +2638,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>38</v>
@@ -2651,7 +2691,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -2704,7 +2744,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -2760,13 +2800,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F4" s="30">
         <v>1</v>
@@ -2809,13 +2849,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>280</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>283</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2854,13 +2894,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>281</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -2899,13 +2939,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="E7" s="31" t="s">
         <v>282</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>285</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -2982,10 +3022,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3001,19 +3041,20 @@
     <col min="9" max="9" width="26.25" style="17" customWidth="1"/>
     <col min="10" max="10" width="17.5" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="17" customWidth="1"/>
-    <col min="12" max="12" width="73.75" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.25" style="17" customWidth="1"/>
+    <col min="13" max="13" width="73.75" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>189</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>190</v>
@@ -3025,42 +3066,45 @@
         <v>183</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="M1" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="N1" s="21" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>191</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>46</v>
@@ -3086,16 +3130,19 @@
       <c r="M2" s="22" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.2">
+      <c r="N2" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.2">
       <c r="A3" s="23" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>192</v>
@@ -3107,28 +3154,31 @@
         <v>187</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I3" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="L3" s="23" t="s">
         <v>337</v>
       </c>
-      <c r="J3" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>328</v>
-      </c>
       <c r="M3" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="N3" s="23" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="24">
         <v>101</v>
       </c>
@@ -3142,34 +3192,37 @@
         <v>193</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F4" s="24">
         <v>1</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="33" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="33" x14ac:dyDescent="0.2">
       <c r="A5" s="24">
         <v>102</v>
       </c>
@@ -3180,10 +3233,10 @@
         <v>103</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F5" s="24">
         <v>1</v>
@@ -3191,20 +3244,23 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="66" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="66" x14ac:dyDescent="0.2">
       <c r="A6" s="24">
         <v>103</v>
       </c>
@@ -3215,37 +3271,40 @@
         <v>104</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F6" s="24">
         <v>1</v>
       </c>
       <c r="G6" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="H6" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="I6" s="25" t="s">
+      <c r="J6" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="M6" s="25" t="s">
         <v>341</v>
       </c>
-      <c r="J6" s="25" t="s">
-        <v>342</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="33" x14ac:dyDescent="0.2">
+      <c r="N6" s="25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="33" x14ac:dyDescent="0.2">
       <c r="A7" s="24">
         <v>104</v>
       </c>
@@ -3255,11 +3314,11 @@
       <c r="C7" s="24">
         <v>105</v>
       </c>
-      <c r="D7" s="24" t="s">
-        <v>194</v>
+      <c r="D7" s="25" t="s">
+        <v>342</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F7" s="24">
         <v>1</v>
@@ -3267,20 +3326,23 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="25" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="33" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="33" x14ac:dyDescent="0.2">
       <c r="A8" s="24">
         <v>105</v>
       </c>
@@ -3291,10 +3353,10 @@
         <v>-1</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F8" s="24">
         <v>1</v>
@@ -3302,17 +3364,20 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="25" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="M8" s="25" t="s">
         <v>321</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3381,7 +3446,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="43" t="s">
         <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3410,7 +3475,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="42"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="3" t="s">
         <v>62</v>
       </c>
@@ -3435,7 +3500,7 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="42"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="3" t="s">
         <v>64</v>
       </c>
@@ -3464,7 +3529,7 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="45" t="s">
         <v>117</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3495,7 +3560,7 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="4" t="s">
         <v>116</v>
       </c>
@@ -3526,7 +3591,7 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="45" t="s">
         <v>118</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3553,7 +3618,7 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="45"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="4" t="s">
         <v>121</v>
       </c>
@@ -3578,7 +3643,7 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="44"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="4" t="s">
         <v>68</v>
       </c>
@@ -3603,7 +3668,7 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="43" t="s">
         <v>126</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3621,7 +3686,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="43" t="s">
+      <c r="I10" s="45" t="s">
         <v>130</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -3630,7 +3695,7 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="3" t="s">
         <v>66</v>
       </c>
@@ -3646,7 +3711,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="48"/>
+      <c r="I11" s="50"/>
       <c r="J11" s="4" t="s">
         <v>134</v>
       </c>
@@ -3655,7 +3720,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="3" t="s">
         <v>63</v>
       </c>
@@ -3671,12 +3736,12 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="48"/>
+      <c r="I12" s="50"/>
       <c r="J12" s="3"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="42"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="4" t="s">
         <v>169</v>
       </c>
@@ -3692,7 +3757,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="49"/>
+      <c r="I13" s="51"/>
       <c r="J13" s="4" t="s">
         <v>136</v>
       </c>
@@ -3753,7 +3818,7 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="45" t="s">
         <v>127</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3778,7 +3843,7 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="3" t="s">
         <v>70</v>
       </c>
@@ -3801,7 +3866,7 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="3" t="s">
         <v>71</v>
       </c>
@@ -3824,7 +3889,7 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="48" t="s">
         <v>124</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3853,7 +3918,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
+      <c r="A20" s="49"/>
       <c r="B20" s="3" t="s">
         <v>73</v>
       </c>
@@ -3878,7 +3943,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="47"/>
+      <c r="A21" s="49"/>
       <c r="B21" s="3" t="s">
         <v>72</v>
       </c>
@@ -3915,30 +3980,30 @@
       <c r="G23" s="1"/>
     </row>
     <row r="54" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="T54" s="40" t="s">
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="T54" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="U54" s="40"/>
-      <c r="V54" s="40"/>
-      <c r="W54" s="40"/>
-      <c r="X54" s="40"/>
-      <c r="Y54" s="40"/>
-      <c r="AB54" s="40" t="s">
+      <c r="U54" s="42"/>
+      <c r="V54" s="42"/>
+      <c r="W54" s="42"/>
+      <c r="X54" s="42"/>
+      <c r="Y54" s="42"/>
+      <c r="AB54" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="AC54" s="40"/>
-      <c r="AD54" s="40"/>
-      <c r="AE54" s="40"/>
-      <c r="AF54" s="40"/>
-      <c r="AG54" s="40"/>
+      <c r="AC54" s="42"/>
+      <c r="AD54" s="42"/>
+      <c r="AE54" s="42"/>
+      <c r="AF54" s="42"/>
+      <c r="AG54" s="42"/>
     </row>
     <row r="55" spans="1:33" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
@@ -4053,41 +4118,41 @@
       </c>
     </row>
     <row r="58" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="40" t="s">
+      <c r="A58" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="G58" s="40" t="s">
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="G58" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="H58" s="40"/>
-      <c r="I58" s="40"/>
-      <c r="J58" s="40"/>
-      <c r="K58" s="40"/>
-      <c r="M58" s="40" t="s">
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="M58" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="T58" s="40" t="s">
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="42"/>
+      <c r="T58" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="U58" s="40"/>
-      <c r="V58" s="40"/>
-      <c r="W58" s="40"/>
-      <c r="X58" s="40"/>
-      <c r="AB58" s="40" t="s">
+      <c r="U58" s="42"/>
+      <c r="V58" s="42"/>
+      <c r="W58" s="42"/>
+      <c r="X58" s="42"/>
+      <c r="AB58" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="AC58" s="40"/>
-      <c r="AD58" s="40"/>
-      <c r="AE58" s="40"/>
-      <c r="AF58" s="40"/>
+      <c r="AC58" s="42"/>
+      <c r="AD58" s="42"/>
+      <c r="AE58" s="42"/>
+      <c r="AF58" s="42"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D59">
@@ -5977,26 +6042,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -21996,7 +22061,7 @@
         <v>2000</v>
       </c>
       <c r="B2003" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -22010,8 +22075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22027,66 +22092,66 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>222</v>
-      </c>
       <c r="F2" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>222</v>
-      </c>
       <c r="H2" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="I2" s="18" t="s">
-        <v>222</v>
-      </c>
       <c r="J2" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -22094,31 +22159,31 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="J3" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -22129,38 +22194,38 @@
         <v>10</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D4" s="36">
         <v>1</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F4" s="36">
         <v>100</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H4" s="36">
         <v>1000</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J4" s="36">
-        <v>140000</v>
+        <v>16000</v>
       </c>
       <c r="M4" s="18">
         <f t="shared" ref="M4:M11" si="0">INT($P$4*N4)</f>
-        <v>140000</v>
+        <v>16000</v>
       </c>
       <c r="N4" s="37">
         <v>0.02</v>
       </c>
       <c r="P4" s="18">
-        <v>7000000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -22171,32 +22236,32 @@
         <v>20</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D5" s="36">
         <v>2</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F5" s="36">
         <v>100</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H5" s="36">
         <v>2000</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J5" s="36">
-        <v>280000</v>
+        <v>32000</v>
       </c>
       <c r="M5" s="18">
         <f t="shared" si="0"/>
-        <v>280000</v>
+        <v>32000</v>
       </c>
       <c r="N5" s="37">
         <v>0.04</v>
@@ -22210,32 +22275,32 @@
         <v>30</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D6" s="36">
         <v>1</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F6" s="36">
         <v>150</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H6" s="36">
         <v>3000</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J6" s="36">
-        <v>490000</v>
+        <v>56000</v>
       </c>
       <c r="M6" s="18">
         <f t="shared" si="0"/>
-        <v>490000</v>
+        <v>56000</v>
       </c>
       <c r="N6" s="37">
         <v>7.0000000000000007E-2</v>
@@ -22248,33 +22313,33 @@
       <c r="B7" s="36">
         <v>40</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>306</v>
+      <c r="C7" s="41" t="s">
+        <v>345</v>
       </c>
       <c r="D7" s="36">
         <v>5</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F7" s="36">
         <v>200</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H7" s="36">
         <v>4000</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J7" s="36">
-        <v>700000</v>
+        <v>80000</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" si="0"/>
-        <v>700000</v>
+        <v>80000</v>
       </c>
       <c r="N7" s="37">
         <v>0.1</v>
@@ -22288,32 +22353,32 @@
         <v>50</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D8" s="36">
         <v>1</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F8" s="36">
         <v>250</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H8" s="36">
         <v>5000</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J8" s="36">
-        <v>980000</v>
+        <v>112000</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" si="0"/>
-        <v>980000</v>
+        <v>112000</v>
       </c>
       <c r="N8" s="37">
         <v>0.14000000000000001</v>
@@ -22327,32 +22392,32 @@
         <v>60</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D9" s="36">
         <v>5</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F9" s="36">
         <v>300</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H9" s="36">
         <v>6000</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J9" s="36">
-        <v>1260000</v>
+        <v>144000</v>
       </c>
       <c r="M9" s="18">
         <f t="shared" si="0"/>
-        <v>1260000</v>
+        <v>144000</v>
       </c>
       <c r="N9" s="37">
         <v>0.18</v>
@@ -22366,32 +22431,32 @@
         <v>70</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D10" s="36">
         <v>1</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F10" s="36">
         <v>400</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H10" s="36">
         <v>7000</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J10" s="36">
-        <v>1400000</v>
+        <v>160000</v>
       </c>
       <c r="M10" s="18">
         <f t="shared" si="0"/>
-        <v>1400000</v>
+        <v>160000</v>
       </c>
       <c r="N10" s="37">
         <v>0.2</v>
@@ -22405,32 +22470,32 @@
         <v>80</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="D11" s="36">
         <v>10</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F11" s="36">
         <v>500</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H11" s="36">
         <v>8000</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="J11" s="36">
-        <v>1750000</v>
+        <v>200000</v>
       </c>
       <c r="M11" s="18">
         <f t="shared" si="0"/>
-        <v>1750000</v>
+        <v>200000</v>
       </c>
       <c r="N11" s="37">
         <v>0.25</v>
@@ -22464,54 +22529,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D2" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>222</v>
-      </c>
       <c r="F2" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="G2" s="18" t="s">
-        <v>222</v>
-      </c>
       <c r="H2" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -22519,25 +22584,25 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -22548,13 +22613,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4" s="28">
         <v>25</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F4" s="28">
         <v>1000</v>
@@ -22570,19 +22635,19 @@
         <v>10</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5" s="28">
         <v>1</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F5" s="28">
         <v>25</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H5" s="39">
         <v>1000</v>
@@ -22596,13 +22661,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D6" s="28">
         <v>50</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F6" s="28">
         <v>1000</v>
@@ -22618,19 +22683,19 @@
         <v>30</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D7" s="28">
         <v>1</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F7" s="28">
         <v>50</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H7" s="39">
         <v>1000</v>
@@ -22644,13 +22709,13 @@
         <v>45</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D8" s="28">
         <v>50</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F8" s="28">
         <v>1000</v>
@@ -22666,19 +22731,19 @@
         <v>60</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D9" s="28">
         <v>50</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F9" s="28">
         <v>50</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H9" s="39">
         <v>1000</v>
@@ -22692,13 +22757,13 @@
         <v>90</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D10" s="28">
         <v>75</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F10" s="28">
         <v>1000</v>
@@ -22714,19 +22779,19 @@
         <v>120</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D11" s="28">
         <v>3</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F11" s="28">
         <v>125</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H11" s="39">
         <v>1000</v>
@@ -22740,10 +22805,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22760,60 +22825,60 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="F2" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>222</v>
-      </c>
       <c r="G2" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="18" t="s">
-        <v>222</v>
-      </c>
       <c r="I2" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -22821,28 +22886,28 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -22853,10 +22918,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E4" s="35">
         <v>100</v>
@@ -22874,10 +22939,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E5" s="35">
         <v>10</v>
@@ -22895,10 +22960,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E6" s="35">
         <v>10</v>
@@ -22916,16 +22981,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E7" s="35">
         <v>1</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G7" s="35">
         <v>1</v>
@@ -22941,16 +23006,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E8" s="35">
         <v>5</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G8" s="35">
         <v>30</v>
@@ -22966,16 +23031,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E9" s="35">
         <v>5</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G9" s="35">
         <v>200</v>
@@ -22991,16 +23056,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E10" s="35">
         <v>5</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G10" s="35">
         <v>1000</v>
@@ -23008,26 +23073,26 @@
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="35">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="35">
         <v>308</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B13" s="35">
         <v>8</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="E11" s="35">
+      <c r="C13" s="35" t="s">
+        <v>289</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="E13" s="35">
         <v>10</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Excel/镇魂街/operAct.运营活动.xlsx
+++ b/Excel/镇魂街/operAct.运营活动.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="642" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="642" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -1256,18 +1256,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>60级守护灵橙色套1-武器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>60级寄灵人橙色套1-武器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>低级专属强化石</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>神器低级材料</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1300,10 +1288,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>20级寄灵人橙色套1-项链</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>守护灵抽卡券</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1317,58 +1301,6 @@
   </si>
   <si>
     <t>Award[4].val</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>40级寄灵人橙色套</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-项链</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>60级寄灵人橙色套</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-项链</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1533,6 +1465,26 @@
   </si>
   <si>
     <t>守护灵抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20级-新手套寄灵人の项链</t>
+  </si>
+  <si>
+    <t>40级-攻击套寄灵人の项链</t>
+  </si>
+  <si>
+    <t>60级-防御套寄灵人の铠甲</t>
+  </si>
+  <si>
+    <t>60级-防御套寄灵人の灵器</t>
+  </si>
+  <si>
+    <t>60级-防御套守护灵の灵器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专属强化石1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1789,7 +1741,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1896,6 +1848,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
@@ -2458,7 +2416,7 @@
         <v>246</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
@@ -2481,7 +2439,7 @@
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="40" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>206</v>
@@ -3066,25 +3024,25 @@
         <v>183</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>262</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>184</v>
@@ -3157,22 +3115,22 @@
         <v>263</v>
       </c>
       <c r="H3" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="J3" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="L3" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="J3" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="L3" s="23" t="s">
-        <v>337</v>
-      </c>
       <c r="M3" s="23" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="N3" s="23" t="s">
         <v>188</v>
@@ -3198,25 +3156,25 @@
         <v>1</v>
       </c>
       <c r="G4" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="I4" s="25" t="s">
         <v>329</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>335</v>
       </c>
       <c r="J4" s="25" t="s">
         <v>267</v>
       </c>
       <c r="K4" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="M4" s="25" t="s">
         <v>316</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>322</v>
       </c>
       <c r="N4" s="25" t="s">
         <v>268</v>
@@ -3244,20 +3202,20 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="66" x14ac:dyDescent="0.2">
@@ -3280,25 +3238,25 @@
         <v>1</v>
       </c>
       <c r="G6" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="H6" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="J6" s="25" t="s">
         <v>330</v>
       </c>
-      <c r="H6" s="25" t="s">
-        <v>327</v>
-      </c>
-      <c r="I6" s="25" t="s">
+      <c r="K6" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>332</v>
+      </c>
+      <c r="M6" s="25" t="s">
         <v>335</v>
-      </c>
-      <c r="J6" s="25" t="s">
-        <v>336</v>
-      </c>
-      <c r="K6" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>341</v>
       </c>
       <c r="N6" s="25" t="s">
         <v>269</v>
@@ -3315,7 +3273,7 @@
         <v>105</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>271</v>
@@ -3326,20 +3284,20 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="25" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="33" x14ac:dyDescent="0.2">
@@ -3364,20 +3322,20 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="25" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="N8" s="25" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3446,7 +3404,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3475,7 +3433,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="3" t="s">
         <v>62</v>
       </c>
@@ -3500,7 +3458,7 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="3" t="s">
         <v>64</v>
       </c>
@@ -3529,7 +3487,7 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="47" t="s">
         <v>117</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3560,7 +3518,7 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="46"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="4" t="s">
         <v>116</v>
       </c>
@@ -3591,7 +3549,7 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="47" t="s">
         <v>118</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3618,7 +3576,7 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="47"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="4" t="s">
         <v>121</v>
       </c>
@@ -3643,7 +3601,7 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="4" t="s">
         <v>68</v>
       </c>
@@ -3668,7 +3626,7 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="45" t="s">
         <v>126</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3686,7 +3644,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="45" t="s">
+      <c r="I10" s="47" t="s">
         <v>130</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -3695,7 +3653,7 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="44"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="3" t="s">
         <v>66</v>
       </c>
@@ -3711,7 +3669,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="50"/>
+      <c r="I11" s="52"/>
       <c r="J11" s="4" t="s">
         <v>134</v>
       </c>
@@ -3720,7 +3678,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="3" t="s">
         <v>63</v>
       </c>
@@ -3736,12 +3694,12 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="50"/>
+      <c r="I12" s="52"/>
       <c r="J12" s="3"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="44"/>
+      <c r="A13" s="46"/>
       <c r="B13" s="4" t="s">
         <v>169</v>
       </c>
@@ -3757,7 +3715,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="51"/>
+      <c r="I13" s="53"/>
       <c r="J13" s="4" t="s">
         <v>136</v>
       </c>
@@ -3818,7 +3776,7 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="47" t="s">
         <v>127</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3843,7 +3801,7 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="50"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="3" t="s">
         <v>70</v>
       </c>
@@ -3866,7 +3824,7 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="3" t="s">
         <v>71</v>
       </c>
@@ -3889,7 +3847,7 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="50" t="s">
         <v>124</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3918,7 +3876,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="49"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="3" t="s">
         <v>73</v>
       </c>
@@ -3943,7 +3901,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="49"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="3" t="s">
         <v>72</v>
       </c>
@@ -3980,30 +3938,30 @@
       <c r="G23" s="1"/>
     </row>
     <row r="54" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="42"/>
-      <c r="D54" s="42"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="42"/>
-      <c r="T54" s="42" t="s">
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="T54" s="44" t="s">
         <v>173</v>
       </c>
-      <c r="U54" s="42"/>
-      <c r="V54" s="42"/>
-      <c r="W54" s="42"/>
-      <c r="X54" s="42"/>
-      <c r="Y54" s="42"/>
-      <c r="AB54" s="42" t="s">
+      <c r="U54" s="44"/>
+      <c r="V54" s="44"/>
+      <c r="W54" s="44"/>
+      <c r="X54" s="44"/>
+      <c r="Y54" s="44"/>
+      <c r="AB54" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="AC54" s="42"/>
-      <c r="AD54" s="42"/>
-      <c r="AE54" s="42"/>
-      <c r="AF54" s="42"/>
-      <c r="AG54" s="42"/>
+      <c r="AC54" s="44"/>
+      <c r="AD54" s="44"/>
+      <c r="AE54" s="44"/>
+      <c r="AF54" s="44"/>
+      <c r="AG54" s="44"/>
     </row>
     <row r="55" spans="1:33" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
@@ -4118,41 +4076,41 @@
       </c>
     </row>
     <row r="58" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="42" t="s">
+      <c r="A58" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="B58" s="42"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="42"/>
-      <c r="E58" s="42"/>
-      <c r="G58" s="42" t="s">
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="G58" s="44" t="s">
         <v>168</v>
       </c>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
-      <c r="M58" s="42" t="s">
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="44"/>
+      <c r="M58" s="44" t="s">
         <v>170</v>
       </c>
-      <c r="N58" s="42"/>
-      <c r="O58" s="42"/>
-      <c r="P58" s="42"/>
-      <c r="Q58" s="42"/>
-      <c r="T58" s="42" t="s">
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="T58" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="U58" s="42"/>
-      <c r="V58" s="42"/>
-      <c r="W58" s="42"/>
-      <c r="X58" s="42"/>
-      <c r="AB58" s="42" t="s">
+      <c r="U58" s="44"/>
+      <c r="V58" s="44"/>
+      <c r="W58" s="44"/>
+      <c r="X58" s="44"/>
+      <c r="AB58" s="44" t="s">
         <v>174</v>
       </c>
-      <c r="AC58" s="42"/>
-      <c r="AD58" s="42"/>
-      <c r="AE58" s="42"/>
-      <c r="AF58" s="42"/>
+      <c r="AC58" s="44"/>
+      <c r="AD58" s="44"/>
+      <c r="AE58" s="44"/>
+      <c r="AF58" s="44"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D59">
@@ -22075,8 +22033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22116,10 +22074,10 @@
         <v>222</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -22194,7 +22152,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D4" s="36">
         <v>1</v>
@@ -22206,13 +22164,13 @@
         <v>100</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H4" s="36">
         <v>1000</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J4" s="36">
         <v>16000</v>
@@ -22236,7 +22194,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D5" s="36">
         <v>2</v>
@@ -22254,7 +22212,7 @@
         <v>2000</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J5" s="36">
         <v>32000</v>
@@ -22275,7 +22233,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="D6" s="36">
         <v>1</v>
@@ -22293,7 +22251,7 @@
         <v>3000</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J6" s="36">
         <v>56000</v>
@@ -22314,7 +22272,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D7" s="36">
         <v>5</v>
@@ -22332,7 +22290,7 @@
         <v>4000</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J7" s="36">
         <v>80000</v>
@@ -22353,7 +22311,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="D8" s="36">
         <v>1</v>
@@ -22371,7 +22329,7 @@
         <v>5000</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J8" s="36">
         <v>112000</v>
@@ -22392,7 +22350,7 @@
         <v>60</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D9" s="36">
         <v>5</v>
@@ -22410,7 +22368,7 @@
         <v>6000</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J9" s="36">
         <v>144000</v>
@@ -22431,7 +22389,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="D10" s="36">
         <v>1</v>
@@ -22449,7 +22407,7 @@
         <v>7000</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J10" s="36">
         <v>160000</v>
@@ -22470,7 +22428,7 @@
         <v>80</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D11" s="36">
         <v>10</v>
@@ -22488,7 +22446,7 @@
         <v>8000</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="J11" s="36">
         <v>200000</v>
@@ -22535,10 +22493,10 @@
         <v>231</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>225</v>
@@ -22547,10 +22505,10 @@
         <v>224</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -22807,15 +22765,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="18"/>
     <col min="3" max="3" width="12.625" style="18" customWidth="1"/>
-    <col min="4" max="4" width="21.875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="18" customWidth="1"/>
     <col min="5" max="5" width="14" style="18" customWidth="1"/>
     <col min="6" max="6" width="23" style="18" customWidth="1"/>
     <col min="7" max="8" width="12.625" style="18" customWidth="1"/>
@@ -22984,13 +22942,13 @@
         <v>237</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="E7" s="35">
         <v>1</v>
       </c>
-      <c r="F7" s="35" t="s">
-        <v>292</v>
+      <c r="F7" s="42" t="s">
+        <v>344</v>
       </c>
       <c r="G7" s="35">
         <v>1</v>
@@ -23014,8 +22972,8 @@
       <c r="E8" s="35">
         <v>5</v>
       </c>
-      <c r="F8" s="35" t="s">
-        <v>293</v>
+      <c r="F8" s="43" t="s">
+        <v>345</v>
       </c>
       <c r="G8" s="35">
         <v>30</v>
@@ -23040,7 +22998,7 @@
         <v>5</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G9" s="35">
         <v>200</v>
@@ -23065,7 +23023,7 @@
         <v>5</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G10" s="35">
         <v>1000</v>

--- a/Excel/镇魂街/operAct.运营活动.xlsx
+++ b/Excel/镇魂街/operAct.运营活动.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="642" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="642" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -843,12 +843,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>普通1章第9关</t>
-  </si>
-  <si>
-    <t>普通5章第15关</t>
-  </si>
-  <si>
     <t>Scene</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1203,36 +1197,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>普通3章第12关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>普通2章第</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Loc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1452,10 +1416,6 @@
 &lt;color=#df4c4c&gt;【虹吸】&lt;/color&gt;攻击带有虹吸状态的目标，可以恢复生命</t>
   </si>
   <si>
-    <t>普通4章第12关</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>level_gift.lua</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1485,6 +1445,26 @@
   </si>
   <si>
     <t>专属强化石1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通1章9关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通2章10关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通3章10关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通4章10关</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通5章10关</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -2342,7 +2322,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="4" t="s">
@@ -2373,10 +2353,10 @@
     </row>
     <row r="4" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="20" t="s">
@@ -2386,7 +2366,7 @@
         <v>189</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G4" s="14" t="b">
         <v>1</v>
@@ -2395,14 +2375,14 @@
     </row>
     <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2413,20 +2393,20 @@
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G6" s="26" t="b">
         <v>1</v>
@@ -2435,18 +2415,18 @@
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="40" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G7" s="26" t="b">
         <v>1</v>
@@ -2455,20 +2435,20 @@
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G8" s="26" t="b">
         <v>1</v>
@@ -2477,18 +2457,18 @@
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G9" s="26" t="b">
         <v>1</v>
@@ -2497,20 +2477,20 @@
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A10" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G10" s="15" t="b">
         <v>1</v>
@@ -2519,18 +2499,18 @@
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="15" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G11" s="15" t="b">
         <v>1</v>
@@ -2539,18 +2519,18 @@
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B12" s="15"/>
       <c r="C12" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G12" s="15" t="b">
         <v>1</v>
@@ -2596,7 +2576,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>38</v>
@@ -2649,7 +2629,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -2702,7 +2682,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -2758,13 +2738,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>274</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>276</v>
       </c>
       <c r="F4" s="30">
         <v>1</v>
@@ -2807,13 +2787,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2852,13 +2832,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -2897,13 +2877,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -2982,8 +2962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3009,10 +2989,10 @@
         <v>189</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>190</v>
@@ -3024,25 +3004,25 @@
         <v>183</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="J1" s="21" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>184</v>
@@ -3050,19 +3030,19 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>191</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>46</v>
@@ -3097,10 +3077,10 @@
         <v>40</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>192</v>
@@ -3112,25 +3092,25 @@
         <v>187</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="J3" s="23" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N3" s="23" t="s">
         <v>188</v>
@@ -3146,38 +3126,38 @@
       <c r="C4" s="24">
         <v>102</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>193</v>
+      <c r="D4" s="25" t="s">
+        <v>341</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F4" s="24">
         <v>1</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J4" s="25" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="33" x14ac:dyDescent="0.2">
@@ -3191,10 +3171,10 @@
         <v>103</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F5" s="24">
         <v>1</v>
@@ -3202,20 +3182,20 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="66" x14ac:dyDescent="0.2">
@@ -3229,37 +3209,37 @@
         <v>104</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F6" s="24">
         <v>1</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="J6" s="25" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L6" s="25" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="N6" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="33" x14ac:dyDescent="0.2">
@@ -3273,10 +3253,10 @@
         <v>105</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F7" s="24">
         <v>1</v>
@@ -3284,20 +3264,20 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="25" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="33" x14ac:dyDescent="0.2">
@@ -3310,11 +3290,11 @@
       <c r="C8" s="24">
         <v>-1</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>194</v>
+      <c r="D8" s="25" t="s">
+        <v>345</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F8" s="24">
         <v>1</v>
@@ -3322,20 +3302,20 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="N8" s="25" t="s">
         <v>307</v>
-      </c>
-      <c r="L8" s="25" t="s">
-        <v>332</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="N8" s="25" t="s">
-        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -6000,26 +5980,26 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -22019,7 +21999,7 @@
         <v>2000</v>
       </c>
       <c r="B2003" s="17" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -22050,66 +22030,66 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -22117,31 +22097,31 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.2">
@@ -22152,25 +22132,25 @@
         <v>10</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D4" s="36">
         <v>1</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F4" s="36">
         <v>100</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H4" s="36">
         <v>1000</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J4" s="36">
         <v>16000</v>
@@ -22194,25 +22174,25 @@
         <v>20</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D5" s="36">
         <v>2</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F5" s="36">
         <v>100</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H5" s="36">
         <v>2000</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J5" s="36">
         <v>32000</v>
@@ -22233,25 +22213,25 @@
         <v>30</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D6" s="36">
         <v>1</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F6" s="36">
         <v>150</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H6" s="36">
         <v>3000</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J6" s="36">
         <v>56000</v>
@@ -22272,25 +22252,25 @@
         <v>40</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D7" s="36">
         <v>5</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F7" s="36">
         <v>200</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H7" s="36">
         <v>4000</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J7" s="36">
         <v>80000</v>
@@ -22311,25 +22291,25 @@
         <v>50</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D8" s="36">
         <v>1</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F8" s="36">
         <v>250</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H8" s="36">
         <v>5000</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J8" s="36">
         <v>112000</v>
@@ -22350,25 +22330,25 @@
         <v>60</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D9" s="36">
         <v>5</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F9" s="36">
         <v>300</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H9" s="36">
         <v>6000</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J9" s="36">
         <v>144000</v>
@@ -22389,25 +22369,25 @@
         <v>70</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D10" s="36">
         <v>1</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F10" s="36">
         <v>400</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H10" s="36">
         <v>7000</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J10" s="36">
         <v>160000</v>
@@ -22428,25 +22408,25 @@
         <v>80</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D11" s="36">
         <v>10</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F11" s="36">
         <v>500</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H11" s="36">
         <v>8000</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="J11" s="36">
         <v>200000</v>
@@ -22487,54 +22467,54 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.2">
@@ -22542,25 +22522,25 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -22571,13 +22551,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D4" s="28">
         <v>25</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F4" s="28">
         <v>1000</v>
@@ -22593,19 +22573,19 @@
         <v>10</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D5" s="28">
         <v>1</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F5" s="28">
         <v>25</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H5" s="39">
         <v>1000</v>
@@ -22619,13 +22599,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D6" s="28">
         <v>50</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F6" s="28">
         <v>1000</v>
@@ -22641,19 +22621,19 @@
         <v>30</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D7" s="28">
         <v>1</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F7" s="28">
         <v>50</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H7" s="39">
         <v>1000</v>
@@ -22667,13 +22647,13 @@
         <v>45</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D8" s="28">
         <v>50</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F8" s="28">
         <v>1000</v>
@@ -22689,19 +22669,19 @@
         <v>60</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D9" s="28">
         <v>50</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F9" s="28">
         <v>50</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H9" s="39">
         <v>1000</v>
@@ -22715,13 +22695,13 @@
         <v>90</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D10" s="28">
         <v>75</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F10" s="28">
         <v>1000</v>
@@ -22737,19 +22717,19 @@
         <v>120</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D11" s="28">
         <v>3</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F11" s="28">
         <v>125</v>
       </c>
       <c r="G11" s="39" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H11" s="39">
         <v>1000</v>
@@ -22765,7 +22745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -22783,60 +22763,60 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
@@ -22844,28 +22824,28 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -22876,10 +22856,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4" s="35">
         <v>100</v>
@@ -22897,10 +22877,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E5" s="35">
         <v>10</v>
@@ -22918,10 +22898,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E6" s="35">
         <v>10</v>
@@ -22939,16 +22919,16 @@
         <v>4</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D7" s="35" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E7" s="35">
         <v>1</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G7" s="35">
         <v>1</v>
@@ -22964,16 +22944,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E8" s="35">
         <v>5</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G8" s="35">
         <v>30</v>
@@ -22989,16 +22969,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E9" s="35">
         <v>5</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G9" s="35">
         <v>200</v>
@@ -23014,16 +22994,16 @@
         <v>7</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E10" s="35">
         <v>5</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G10" s="35">
         <v>1000</v>
@@ -23039,10 +23019,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E13" s="35">
         <v>10</v>

--- a/Excel/镇魂街/operAct.运营活动.xlsx
+++ b/Excel/镇魂街/operAct.运营活动.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="642" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="642" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="INDEX" sheetId="25" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="349">
   <si>
     <t>sheet名</t>
   </si>
@@ -1157,10 +1157,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>绿色基础材料</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>李轩辕</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1217,10 +1213,6 @@
   </si>
   <si>
     <t>神器惊喜宝箱</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>神器低级材料</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1437,13 +1429,6 @@
     <t>60级-防御套寄灵人の铠甲</t>
   </si>
   <si>
-    <t>60级-防御套寄灵人の灵器</t>
-  </si>
-  <si>
-    <t>60级-防御套守护灵の灵器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>专属强化石1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1466,6 +1451,32 @@
   <si>
     <t>普通5章10关</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40级-攻击套寄灵人の灵器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40级-攻击套守护灵の灵器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>许褚专属武器碎片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄灵人抽卡券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>守护灵经验</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代金券</t>
+  </si>
+  <si>
+    <t>绿色基础材料</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1732,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -1840,6 +1851,27 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="4">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3">
@@ -2322,7 +2354,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E2" s="33"/>
       <c r="F2" s="4" t="s">
@@ -2396,7 +2428,7 @@
         <v>244</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15" t="s">
@@ -2419,7 +2451,7 @@
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="40" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>204</v>
@@ -2576,7 +2608,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>38</v>
@@ -2629,7 +2661,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
@@ -2682,7 +2714,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>19</v>
@@ -2738,13 +2770,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="29" t="s">
         <v>272</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="E4" s="29" t="s">
         <v>273</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>274</v>
       </c>
       <c r="F4" s="30">
         <v>1</v>
@@ -2787,13 +2819,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -2832,13 +2864,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -2877,13 +2909,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -2962,7 +2994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -3004,25 +3036,25 @@
         <v>183</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>260</v>
       </c>
       <c r="K1" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L1" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M1" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N1" s="21" t="s">
         <v>184</v>
@@ -3095,22 +3127,22 @@
         <v>261</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J3" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="K3" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="K3" s="23" t="s">
-        <v>301</v>
-      </c>
       <c r="L3" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="N3" s="23" t="s">
         <v>188</v>
@@ -3127,7 +3159,7 @@
         <v>102</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E4" s="25" t="s">
         <v>263</v>
@@ -3136,25 +3168,25 @@
         <v>1</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H4" s="25" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="I4" s="25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J4" s="25" t="s">
         <v>265</v>
       </c>
       <c r="K4" s="25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="N4" s="25" t="s">
         <v>266</v>
@@ -3171,7 +3203,7 @@
         <v>103</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E5" s="25" t="s">
         <v>268</v>
@@ -3182,20 +3214,20 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J5" s="25"/>
       <c r="K5" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="L5" s="25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="66" x14ac:dyDescent="0.2">
@@ -3209,7 +3241,7 @@
         <v>104</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>264</v>
@@ -3218,25 +3250,25 @@
         <v>1</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J6" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="L6" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="K6" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="L6" s="25" t="s">
-        <v>328</v>
-      </c>
       <c r="M6" s="25" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="N6" s="25" t="s">
         <v>267</v>
@@ -3253,7 +3285,7 @@
         <v>105</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>269</v>
@@ -3264,20 +3296,20 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J7" s="24"/>
       <c r="K7" s="25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="33" x14ac:dyDescent="0.2">
@@ -3291,7 +3323,7 @@
         <v>-1</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>270</v>
@@ -3302,20 +3334,20 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="J8" s="24"/>
       <c r="K8" s="25" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="L8" s="25" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M8" s="25" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N8" s="25" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3384,7 +3416,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="52" t="s">
         <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3413,7 +3445,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="46"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="3" t="s">
         <v>62</v>
       </c>
@@ -3438,7 +3470,7 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="3" t="s">
         <v>64</v>
       </c>
@@ -3467,7 +3499,7 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="54" t="s">
         <v>117</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -3498,7 +3530,7 @@
       <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="48"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="4" t="s">
         <v>116</v>
       </c>
@@ -3529,7 +3561,7 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="54" t="s">
         <v>118</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -3556,7 +3588,7 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="4" t="s">
         <v>121</v>
       </c>
@@ -3581,7 +3613,7 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="4" t="s">
         <v>68</v>
       </c>
@@ -3606,7 +3638,7 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="52" t="s">
         <v>126</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3624,7 +3656,7 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="47" t="s">
+      <c r="I10" s="54" t="s">
         <v>130</v>
       </c>
       <c r="J10" s="4" t="s">
@@ -3633,7 +3665,7 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="46"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="3" t="s">
         <v>66</v>
       </c>
@@ -3649,7 +3681,7 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="52"/>
+      <c r="I11" s="59"/>
       <c r="J11" s="4" t="s">
         <v>134</v>
       </c>
@@ -3658,7 +3690,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="46"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="3" t="s">
         <v>63</v>
       </c>
@@ -3674,12 +3706,12 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="52"/>
+      <c r="I12" s="59"/>
       <c r="J12" s="3"/>
       <c r="K12" s="7"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="46"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="4" t="s">
         <v>169</v>
       </c>
@@ -3695,7 +3727,7 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="53"/>
+      <c r="I13" s="60"/>
       <c r="J13" s="4" t="s">
         <v>136</v>
       </c>
@@ -3756,7 +3788,7 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="54" t="s">
         <v>127</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3781,7 +3813,7 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="3" t="s">
         <v>70</v>
       </c>
@@ -3804,7 +3836,7 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="3" t="s">
         <v>71</v>
       </c>
@@ -3827,7 +3859,7 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="57" t="s">
         <v>124</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3856,7 +3888,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="3" t="s">
         <v>73</v>
       </c>
@@ -3881,7 +3913,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
+      <c r="A21" s="58"/>
       <c r="B21" s="3" t="s">
         <v>72</v>
       </c>
@@ -3918,30 +3950,30 @@
       <c r="G23" s="1"/>
     </row>
     <row r="54" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="44" t="s">
+      <c r="A54" s="51" t="s">
         <v>172</v>
       </c>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="T54" s="44" t="s">
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="T54" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="U54" s="44"/>
-      <c r="V54" s="44"/>
-      <c r="W54" s="44"/>
-      <c r="X54" s="44"/>
-      <c r="Y54" s="44"/>
-      <c r="AB54" s="44" t="s">
+      <c r="U54" s="51"/>
+      <c r="V54" s="51"/>
+      <c r="W54" s="51"/>
+      <c r="X54" s="51"/>
+      <c r="Y54" s="51"/>
+      <c r="AB54" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="AC54" s="44"/>
-      <c r="AD54" s="44"/>
-      <c r="AE54" s="44"/>
-      <c r="AF54" s="44"/>
-      <c r="AG54" s="44"/>
+      <c r="AC54" s="51"/>
+      <c r="AD54" s="51"/>
+      <c r="AE54" s="51"/>
+      <c r="AF54" s="51"/>
+      <c r="AG54" s="51"/>
     </row>
     <row r="55" spans="1:33" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
@@ -4056,41 +4088,41 @@
       </c>
     </row>
     <row r="58" spans="1:33" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="44" t="s">
+      <c r="A58" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="B58" s="44"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="44"/>
-      <c r="G58" s="44" t="s">
+      <c r="B58" s="51"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="G58" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="H58" s="44"/>
-      <c r="I58" s="44"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="44"/>
-      <c r="M58" s="44" t="s">
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="M58" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="N58" s="44"/>
-      <c r="O58" s="44"/>
-      <c r="P58" s="44"/>
-      <c r="Q58" s="44"/>
-      <c r="T58" s="44" t="s">
+      <c r="N58" s="51"/>
+      <c r="O58" s="51"/>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="51"/>
+      <c r="T58" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="U58" s="44"/>
-      <c r="V58" s="44"/>
-      <c r="W58" s="44"/>
-      <c r="X58" s="44"/>
-      <c r="AB58" s="44" t="s">
+      <c r="U58" s="51"/>
+      <c r="V58" s="51"/>
+      <c r="W58" s="51"/>
+      <c r="X58" s="51"/>
+      <c r="AB58" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="AC58" s="44"/>
-      <c r="AD58" s="44"/>
-      <c r="AE58" s="44"/>
-      <c r="AF58" s="44"/>
+      <c r="AC58" s="51"/>
+      <c r="AD58" s="51"/>
+      <c r="AE58" s="51"/>
+      <c r="AF58" s="51"/>
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D59">
@@ -22014,7 +22046,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22054,10 +22086,10 @@
         <v>220</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -22132,7 +22164,7 @@
         <v>10</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D4" s="36">
         <v>1</v>
@@ -22144,13 +22176,13 @@
         <v>100</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H4" s="36">
-        <v>1000</v>
+        <v>10000</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J4" s="36">
         <v>16000</v>
@@ -22174,7 +22206,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D5" s="36">
         <v>2</v>
@@ -22189,10 +22221,10 @@
         <v>210</v>
       </c>
       <c r="H5" s="36">
-        <v>2000</v>
+        <v>20000</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J5" s="36">
         <v>32000</v>
@@ -22213,7 +22245,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D6" s="36">
         <v>1</v>
@@ -22227,11 +22259,11 @@
       <c r="G6" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="H6" s="36">
-        <v>3000</v>
+      <c r="H6" s="45">
+        <v>30000</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J6" s="36">
         <v>56000</v>
@@ -22252,7 +22284,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D7" s="36">
         <v>5</v>
@@ -22266,11 +22298,11 @@
       <c r="G7" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="H7" s="36">
-        <v>4000</v>
+      <c r="H7" s="45">
+        <v>50000</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J7" s="36">
         <v>80000</v>
@@ -22291,7 +22323,7 @@
         <v>50</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D8" s="36">
         <v>1</v>
@@ -22305,11 +22337,11 @@
       <c r="G8" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="H8" s="36">
-        <v>5000</v>
+      <c r="H8" s="45">
+        <v>80000</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J8" s="36">
         <v>112000</v>
@@ -22330,7 +22362,7 @@
         <v>60</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D9" s="36">
         <v>5</v>
@@ -22344,11 +22376,11 @@
       <c r="G9" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="H9" s="36">
-        <v>6000</v>
+      <c r="H9" s="45">
+        <v>100000</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J9" s="36">
         <v>144000</v>
@@ -22369,7 +22401,7 @@
         <v>70</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D10" s="36">
         <v>1</v>
@@ -22383,11 +22415,11 @@
       <c r="G10" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="H10" s="36">
-        <v>7000</v>
+      <c r="H10" s="45">
+        <v>150000</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J10" s="36">
         <v>160000</v>
@@ -22408,7 +22440,7 @@
         <v>80</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D11" s="36">
         <v>10</v>
@@ -22422,11 +22454,11 @@
       <c r="G11" s="36" t="s">
         <v>210</v>
       </c>
-      <c r="H11" s="36">
-        <v>8000</v>
+      <c r="H11" s="45">
+        <v>200000</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J11" s="36">
         <v>200000</v>
@@ -22449,8 +22481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22473,10 +22505,10 @@
         <v>229</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>223</v>
@@ -22485,10 +22517,10 @@
         <v>222</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -22560,10 +22592,14 @@
         <v>210</v>
       </c>
       <c r="F4" s="28">
-        <v>1000</v>
-      </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+        <v>10000</v>
+      </c>
+      <c r="G4" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="H4" s="39">
+        <v>10000</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="28">
@@ -22588,7 +22624,7 @@
         <v>210</v>
       </c>
       <c r="H5" s="39">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -22608,10 +22644,14 @@
         <v>210</v>
       </c>
       <c r="F6" s="28">
-        <v>1000</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
+        <v>10000</v>
+      </c>
+      <c r="G6" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="H6" s="50">
+        <v>10000</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="28">
@@ -22636,7 +22676,7 @@
         <v>210</v>
       </c>
       <c r="H7" s="39">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -22656,10 +22696,14 @@
         <v>210</v>
       </c>
       <c r="F8" s="28">
-        <v>1000</v>
-      </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
+        <v>10000</v>
+      </c>
+      <c r="G8" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="H8" s="50">
+        <v>10000</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="28">
@@ -22669,22 +22713,22 @@
         <v>60</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>271</v>
+        <v>209</v>
       </c>
       <c r="D9" s="28">
         <v>50</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>209</v>
+        <v>348</v>
       </c>
       <c r="F9" s="28">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G9" s="39" t="s">
         <v>210</v>
       </c>
       <c r="H9" s="39">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
@@ -22695,19 +22739,23 @@
         <v>90</v>
       </c>
       <c r="C10" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" s="28">
+        <v>648</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="28">
+      <c r="F10" s="28">
         <v>75</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="G10" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="F10" s="28">
-        <v>1000</v>
-      </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
+      <c r="H10" s="39">
+        <v>10000</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="28">
@@ -22720,7 +22768,7 @@
         <v>227</v>
       </c>
       <c r="D11" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>209</v>
@@ -22732,7 +22780,7 @@
         <v>210</v>
       </c>
       <c r="H11" s="39">
-        <v>1000</v>
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
@@ -22743,10 +22791,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22858,11 +22906,11 @@
       <c r="C4" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="D4" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="35">
-        <v>100</v>
+      <c r="D4" s="46" t="s">
+        <v>286</v>
+      </c>
+      <c r="E4" s="47">
+        <v>1288</v>
       </c>
       <c r="F4" s="35"/>
       <c r="G4" s="35"/>
@@ -22879,10 +22927,10 @@
       <c r="C5" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="D5" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5" s="35">
+      <c r="D5" s="46" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="47">
         <v>10</v>
       </c>
       <c r="F5" s="35"/>
@@ -22900,11 +22948,11 @@
       <c r="C6" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="D6" s="35" t="s">
-        <v>227</v>
+      <c r="D6" s="46" t="s">
+        <v>344</v>
       </c>
       <c r="E6" s="35">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F6" s="35"/>
       <c r="G6" s="35"/>
@@ -22921,14 +22969,14 @@
       <c r="C7" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="35" t="s">
-        <v>338</v>
+      <c r="D7" s="44" t="s">
+        <v>342</v>
       </c>
       <c r="E7" s="35">
         <v>1</v>
       </c>
       <c r="F7" s="42" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G7" s="35">
         <v>1</v>
@@ -22953,7 +23001,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="43" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G8" s="35">
         <v>30</v>
@@ -22972,17 +23020,13 @@
         <v>232</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E9" s="35">
         <v>5</v>
       </c>
-      <c r="F9" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="G9" s="35">
-        <v>200</v>
-      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
     </row>
@@ -22996,41 +23040,41 @@
       <c r="C10" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="D10" s="35" t="s">
-        <v>230</v>
+      <c r="D10" s="46" t="s">
+        <v>345</v>
       </c>
       <c r="E10" s="35">
-        <v>5</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="G10" s="35">
-        <v>1000</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="35"/>
       <c r="I10" s="35"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="35">
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="35">
         <v>308</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B11" s="35">
         <v>8</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="D13" s="35" t="s">
+      <c r="C11" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D11" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E11" s="35">
         <v>10</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
+      <c r="F11" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="G11" s="47">
+        <v>1000</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
